--- a/evaluation/Gold Standard/Gold Standard Dict.xlsx
+++ b/evaluation/Gold Standard/Gold Standard Dict.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="-80" windowWidth="21600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="3345" yWindow="-75" windowWidth="21600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$203</definedName>
   </definedNames>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -3530,13 +3527,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -3606,7 +3602,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3621,26 +3617,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="J1" t="str">
-            <v>ALPHA</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3962,21 +3944,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K740"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="8" t="s">
         <v>874</v>
       </c>
@@ -3990,16 +3972,16 @@
         <v>877</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="e">
-        <f>[1]Sheet1!$J$1+[1]Sheet1!$J$1+[1]Sheet1!$J$1+[1]Sheet1!$J$1</f>
-        <v>#VALUE!</v>
+      <c r="C2" t="str">
+        <f>IF(OR(D2="EXPN",D2="LSEQ",D2="ASWD"),"ALPHA", IF(OR(D2="NUM",D2="NORD",D2="NRANGE",D2="NSCI",D2="NDIG",D2="NTIME",D2="MONEY",D2="BMONEY",D2="NYER",D2="PRCT"),"NUMB", IF(OR(D2="URL",D2="NONE"),"MISC", IF(OR(D2="SPLT"),"SPLT"))))</f>
+        <v>ALPHA</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -4018,12 +4000,12 @@
         <f t="shared" ref="J2:J47" si="0">CONCATENATE("                      ",A2,$I$2,$I$12,B2,$I$14)</f>
         <v xml:space="preserve">                      1: "BBC",</v>
       </c>
-      <c r="K2" t="e">
+      <c r="K2" t="str">
         <f t="shared" ref="K2:K7" si="1">CONCATENATE("                        ",A2,$I$2,$I$5,$I$3,B2,$I$3,$I$4,C2,$I$7,$I$6,$I$9)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v xml:space="preserve">                        1: ("BBC", "ALPHA"),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4056,7 +4038,7 @@
         <v xml:space="preserve">                        2: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4064,7 +4046,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C3:C75" si="2">IF(OR(D4="EXPN",D4="LSEQ",D4="ASWD"),"ALPHA", IF(OR(D4="NUM",D4="NORD",D4="NRANGE",D4="NSCI",D4="NDIG",D4="NTIME",D4="MONEY",D4="BMONEY",D4="NYER",D4="PRCT"),"NUMB", IF(OR(D4="URL",D4="NONE"),"MISC", IF(OR(D4="SPLT"),"SPLT"))))</f>
+        <f t="shared" ref="C4:C75" si="2">IF(OR(D4="EXPN",D4="LSEQ",D4="ASWD"),"ALPHA", IF(OR(D4="NUM",D4="NORD",D4="NRANGE",D4="NSCI",D4="NDIG",D4="NTIME",D4="MONEY",D4="BMONEY",D4="NYER",D4="PRCT"),"NUMB", IF(OR(D4="URL",D4="NONE"),"MISC", IF(OR(D4="SPLT"),"SPLT"))))</f>
         <v>ALPHA</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -4092,7 +4074,7 @@
         <v xml:space="preserve">                        3: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4125,7 +4107,7 @@
         <v xml:space="preserve">                        4: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4158,7 +4140,7 @@
         <v xml:space="preserve">                        5: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6.1</v>
       </c>
@@ -4190,7 +4172,7 @@
         <v xml:space="preserve">                        6.1: ("spoken", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6.2</v>
       </c>
@@ -4211,7 +4193,7 @@
         <v xml:space="preserve">                      6.2: "word",</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4244,7 +4226,7 @@
         <v xml:space="preserve">                        7: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4274,7 +4256,7 @@
         <v xml:space="preserve">                        8: ("1967", "NUMB"),</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4304,7 +4286,7 @@
         <v xml:space="preserve">                        9: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4337,7 +4319,7 @@
         <v xml:space="preserve">                        10: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4370,7 +4352,7 @@
         <v xml:space="preserve">                        11: ("BBC's", "ALPHA"),</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4403,7 +4385,7 @@
         <v xml:space="preserve">                        12: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4433,7 +4415,7 @@
         <v xml:space="preserve">                        13: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4463,7 +4445,7 @@
         <v xml:space="preserve">                        14: ("UK", "ALPHA"),</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4493,7 +4475,7 @@
         <v xml:space="preserve">                        15: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4523,7 +4505,7 @@
         <v xml:space="preserve">                        16: ("LW", "ALPHA"),</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4553,7 +4535,7 @@
         <v xml:space="preserve">                        17: ("DAB", "ALPHA"),</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4583,7 +4565,7 @@
         <v xml:space="preserve">                        18: ("4's", "NUMB"),</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4613,7 +4595,7 @@
         <v xml:space="preserve">                        19: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4643,7 +4625,7 @@
         <v xml:space="preserve">                        20: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4673,7 +4655,7 @@
         <v xml:space="preserve">                        21: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4703,7 +4685,7 @@
         <v xml:space="preserve">                        22: ("7", "NUMB"),</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4733,7 +4715,7 @@
         <v xml:space="preserve">                        23: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4763,7 +4745,7 @@
         <v xml:space="preserve">                        24: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4793,7 +4775,7 @@
         <v xml:space="preserve">                        25: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4823,7 +4805,7 @@
         <v xml:space="preserve">                        26: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4853,7 +4835,7 @@
         <v xml:space="preserve">                        27: ("1", "NUMB"),</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4883,7 +4865,7 @@
         <v xml:space="preserve">                        28: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4913,7 +4895,7 @@
         <v xml:space="preserve">                        29: ("2", "NUMB"),</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4943,7 +4925,7 @@
         <v xml:space="preserve">                        30: ("11", "NUMB"),</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4973,7 +4955,7 @@
         <v xml:space="preserve">                        31: ("2011", "NUMB"),</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5003,7 +4985,7 @@
         <v xml:space="preserve">                        32: ("UK", "ALPHA"),</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5033,7 +5015,7 @@
         <v xml:space="preserve">                        33: ("2003", "NUMB"),</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5063,7 +5045,7 @@
         <v xml:space="preserve">                        34: ("2004", "NUMB"),</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5093,7 +5075,7 @@
         <v xml:space="preserve">                        35: ("2008", "NUMB"),</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5123,7 +5105,7 @@
         <v xml:space="preserve">                        36: ("£71.4", "NUMB"),</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5153,7 +5135,7 @@
         <v xml:space="preserve">                        37: ("2005/6", "NUMB"),</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5183,7 +5165,7 @@
         <v xml:space="preserve">                        38: ("BBC's", "ALPHA"),</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5213,7 +5195,7 @@
         <v xml:space="preserve">                        39: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40.1</v>
       </c>
@@ -5242,7 +5224,7 @@
         <v xml:space="preserve">                        40.1: ("speech", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40.200000000000003</v>
       </c>
@@ -5266,7 +5248,7 @@
         <v xml:space="preserve">                        40.2: ("based", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -5296,7 +5278,7 @@
         <v xml:space="preserve">                        41: ("2008", "NUMB"),</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -5326,7 +5308,7 @@
         <v xml:space="preserve">                        42: ("£100m", "NUMB"),</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -5356,7 +5338,7 @@
         <v xml:space="preserve">                        43: ("2010", "NUMB"),</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5386,7 +5368,7 @@
         <v xml:space="preserve">                        44: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45.1</v>
       </c>
@@ -5403,7 +5385,7 @@
       <c r="F48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45.2</v>
       </c>
@@ -5432,7 +5414,7 @@
         <v xml:space="preserve">                        45.2: ("running", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>46.1</v>
       </c>
@@ -5453,7 +5435,7 @@
         <v xml:space="preserve">                      46.1: "music",</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>46.2</v>
       </c>
@@ -5482,7 +5464,7 @@
         <v xml:space="preserve">                        46.2: ("based", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>47</v>
       </c>
@@ -5512,7 +5494,7 @@
         <v xml:space="preserve">                        47: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>48</v>
       </c>
@@ -5542,7 +5524,7 @@
         <v xml:space="preserve">                        48: ("5", "NUMB"),</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>49.1</v>
       </c>
@@ -5559,7 +5541,7 @@
       <c r="F54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>49.2</v>
       </c>
@@ -5588,7 +5570,7 @@
         <v xml:space="preserve">                        49.2: ("based", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -5618,7 +5600,7 @@
         <v xml:space="preserve">                        50: ("5", "NUMB"),</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>51.1</v>
       </c>
@@ -5635,7 +5617,7 @@
       <c r="F57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>51.2</v>
       </c>
@@ -5652,7 +5634,7 @@
       <c r="F58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>51.3</v>
       </c>
@@ -5681,7 +5663,7 @@
         <v xml:space="preserve">                        51.3: ("ball", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>52</v>
       </c>
@@ -5711,7 +5693,7 @@
         <v xml:space="preserve">                        52: ("70", "NUMB"),</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>53</v>
       </c>
@@ -5741,7 +5723,7 @@
         <v xml:space="preserve">                        53: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>54</v>
       </c>
@@ -5771,7 +5753,7 @@
         <v xml:space="preserve">                        54: ("DAB", "ALPHA"),</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>55</v>
       </c>
@@ -5801,7 +5783,7 @@
         <v xml:space="preserve">                        55: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>56</v>
       </c>
@@ -5831,7 +5813,7 @@
         <v xml:space="preserve">                        56: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>57</v>
       </c>
@@ -5861,7 +5843,7 @@
         <v xml:space="preserve">                        57: ("1978", "NUMB"),</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>58.1</v>
       </c>
@@ -5890,7 +5872,7 @@
         <v xml:space="preserve">                        58.1: ("long", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>58.2</v>
       </c>
@@ -5915,7 +5897,7 @@
         <v xml:space="preserve">                        58.2: ("wave", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>59</v>
       </c>
@@ -5945,7 +5927,7 @@
         <v xml:space="preserve">                        59: ("UK's", "ALPHA"),</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>60</v>
       </c>
@@ -5975,7 +5957,7 @@
         <v xml:space="preserve">                        60: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>61</v>
       </c>
@@ -6005,7 +5987,7 @@
         <v xml:space="preserve">                        61: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>62.1</v>
       </c>
@@ -6034,7 +6016,7 @@
         <v xml:space="preserve">                        62.1: ("nuclear", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>62.2</v>
       </c>
@@ -6055,7 +6037,7 @@
         <v xml:space="preserve">                      62.2: "armed",</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>63</v>
       </c>
@@ -6085,7 +6067,7 @@
         <v xml:space="preserve">                        63: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>64</v>
       </c>
@@ -6115,7 +6097,7 @@
         <v xml:space="preserve">                        64: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>65</v>
       </c>
@@ -6145,7 +6127,7 @@
         <v xml:space="preserve">                        65: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>66</v>
       </c>
@@ -6175,7 +6157,7 @@
         <v xml:space="preserve">                        66: ("LW", "ALPHA"),</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>67</v>
       </c>
@@ -6205,7 +6187,7 @@
         <v xml:space="preserve">                        67: ("20", "NUMB"),</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>68</v>
       </c>
@@ -6235,7 +6217,7 @@
         <v xml:space="preserve">                        68: ("MW", "ALPHA"),</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>69</v>
       </c>
@@ -6265,7 +6247,7 @@
         <v xml:space="preserve">                        69: ("DAB", "ALPHA"),</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>70</v>
       </c>
@@ -6295,7 +6277,7 @@
         <v xml:space="preserve">                        70: ("TV", "ALPHA"),</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>71</v>
       </c>
@@ -6325,7 +6307,7 @@
         <v xml:space="preserve">                        71: ("2", "NUMB"),</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>72</v>
       </c>
@@ -6355,7 +6337,7 @@
         <v xml:space="preserve">                        72: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>73</v>
       </c>
@@ -6385,7 +6367,7 @@
         <v xml:space="preserve">                        73: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>74</v>
       </c>
@@ -6415,7 +6397,7 @@
         <v xml:space="preserve">                        74: ("1939", "NUMB"),</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>75</v>
       </c>
@@ -6445,7 +6427,7 @@
         <v xml:space="preserve">                        75: ("1967", "NUMB"),</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>76</v>
       </c>
@@ -6475,7 +6457,7 @@
         <v xml:space="preserve">                        76: ("VHF", "ALPHA"),</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>77</v>
       </c>
@@ -6505,7 +6487,7 @@
         <v xml:space="preserve">                        77: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>78</v>
       </c>
@@ -6535,7 +6517,7 @@
         <v xml:space="preserve">                        78: ("1955", "NUMB"),</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>79</v>
       </c>
@@ -6565,7 +6547,7 @@
         <v xml:space="preserve">                        79: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>80</v>
       </c>
@@ -6595,7 +6577,7 @@
         <v xml:space="preserve">                        80: ("30", "NUMB"),</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>81</v>
       </c>
@@ -6625,7 +6607,7 @@
         <v xml:space="preserve">                        81: ("1967", "NUMB"),</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>82</v>
       </c>
@@ -6655,7 +6637,7 @@
         <v xml:space="preserve">                        82: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>83</v>
       </c>
@@ -6685,7 +6667,7 @@
         <v xml:space="preserve">                        83: ("1978", "NUMB"),</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>84</v>
       </c>
@@ -6715,7 +6697,7 @@
         <v xml:space="preserve">                        84: ("200", "NUMB"),</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>85</v>
       </c>
@@ -6745,7 +6727,7 @@
         <v xml:space="preserve">                        85: ("kHz", "ALPHA"),</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>86</v>
       </c>
@@ -6775,7 +6757,7 @@
         <v xml:space="preserve">                        86: ("2", "NUMB"),</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>87</v>
       </c>
@@ -6805,7 +6787,7 @@
         <v xml:space="preserve">                        87: ("198", "NUMB"),</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>88</v>
       </c>
@@ -6835,7 +6817,7 @@
         <v xml:space="preserve">                        88: ("kHz", "ALPHA"),</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>89</v>
       </c>
@@ -6865,7 +6847,7 @@
         <v xml:space="preserve">                        89: ("1970s", "NUMB"),</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>90</v>
       </c>
@@ -6895,7 +6877,7 @@
         <v xml:space="preserve">                        90: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>91</v>
       </c>
@@ -6925,7 +6907,7 @@
         <v xml:space="preserve">                        91: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>92</v>
       </c>
@@ -6955,7 +6937,7 @@
         <v xml:space="preserve">                        92: ("VHF", "ALPHA"),</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>93.1</v>
       </c>
@@ -6984,7 +6966,7 @@
         <v xml:space="preserve">                        93.1: ("opt", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>93.2</v>
       </c>
@@ -7009,7 +6991,7 @@
         <v xml:space="preserve">                        93.2: ("out", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>94</v>
       </c>
@@ -7039,7 +7021,7 @@
         <v xml:space="preserve">                        94: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>95</v>
       </c>
@@ -7069,7 +7051,7 @@
         <v xml:space="preserve">                        95: ("6.45", "NUMB"),</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>96</v>
       </c>
@@ -7099,7 +7081,7 @@
         <v xml:space="preserve">                        96: ("am", "ALPHA"),</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>97</v>
       </c>
@@ -7129,7 +7111,7 @@
         <v xml:space="preserve">                        97: ("8.45", "NUMB"),</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>98</v>
       </c>
@@ -7159,7 +7141,7 @@
         <v xml:space="preserve">                        98: ("am", "ALPHA"),</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>99</v>
       </c>
@@ -7189,7 +7171,7 @@
         <v xml:space="preserve">                        99: ("1980", "NUMB"),</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>100</v>
       </c>
@@ -7219,7 +7201,7 @@
         <v xml:space="preserve">                        100: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>101</v>
       </c>
@@ -7249,7 +7231,7 @@
         <v xml:space="preserve">                        101: ("1990", "NUMB"),</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>102</v>
       </c>
@@ -7279,7 +7261,7 @@
         <v xml:space="preserve">                        102: ("4's", "NUMB"),</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>103</v>
       </c>
@@ -7309,7 +7291,7 @@
         <v xml:space="preserve">                        103: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>104</v>
       </c>
@@ -7339,7 +7321,7 @@
         <v xml:space="preserve">                        104: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>105.1</v>
       </c>
@@ -7356,7 +7338,7 @@
       <c r="F116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>105.2</v>
       </c>
@@ -7385,7 +7367,7 @@
         <v xml:space="preserve">                        105.2: ("FM", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>106</v>
       </c>
@@ -7415,7 +7397,7 @@
         <v xml:space="preserve">                        106: ("1990s", "NUMB"),</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>107</v>
       </c>
@@ -7445,7 +7427,7 @@
         <v xml:space="preserve">                        107: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>108</v>
       </c>
@@ -7475,7 +7457,7 @@
         <v xml:space="preserve">                        108: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>109</v>
       </c>
@@ -7505,7 +7487,7 @@
         <v xml:space="preserve">                        109: ("5", "NUMB"),</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>110</v>
       </c>
@@ -7535,7 +7517,7 @@
         <v xml:space="preserve">                        110: ("1990", "NUMB"),</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>111</v>
       </c>
@@ -7565,7 +7547,7 @@
         <v xml:space="preserve">                        111: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>112</v>
       </c>
@@ -7595,7 +7577,7 @@
         <v xml:space="preserve">                        112: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>113</v>
       </c>
@@ -7625,7 +7607,7 @@
         <v xml:space="preserve">                        113: ("17", "NUMB"),</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>114</v>
       </c>
@@ -7655,7 +7637,7 @@
         <v xml:space="preserve">                        114: ("1991", "NUMB"),</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>115</v>
       </c>
@@ -7685,7 +7667,7 @@
         <v xml:space="preserve">                        115: ("2", "NUMB"),</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>116</v>
       </c>
@@ -7715,7 +7697,7 @@
         <v xml:space="preserve">                        116: ("1991", "NUMB"),</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>117</v>
       </c>
@@ -7745,7 +7727,7 @@
         <v xml:space="preserve">                        117: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>118</v>
       </c>
@@ -7775,7 +7757,7 @@
         <v xml:space="preserve">                        118: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>119</v>
       </c>
@@ -7805,7 +7787,7 @@
         <v xml:space="preserve">                        119: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>120</v>
       </c>
@@ -7835,7 +7817,7 @@
         <v xml:space="preserve">                        120: ("1991", "NUMB"),</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>121</v>
       </c>
@@ -7865,7 +7847,7 @@
         <v xml:space="preserve">                        121: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>122</v>
       </c>
@@ -7895,7 +7877,7 @@
         <v xml:space="preserve">                        122: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>123</v>
       </c>
@@ -7925,7 +7907,7 @@
         <v xml:space="preserve">                        123: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>124</v>
       </c>
@@ -7955,7 +7937,7 @@
         <v xml:space="preserve">                        124: ("UK", "ALPHA"),</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>125.1</v>
       </c>
@@ -7984,7 +7966,7 @@
         <v xml:space="preserve">                        125.1: ("opt", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>125.2</v>
       </c>
@@ -8009,7 +7991,7 @@
         <v xml:space="preserve">                        125.2: ("outs", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>126</v>
       </c>
@@ -8039,7 +8021,7 @@
         <v xml:space="preserve">                        126: ("2010", "NUMB"),</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>127</v>
       </c>
@@ -8066,7 +8048,7 @@
         <v xml:space="preserve">                        127: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>128</v>
       </c>
@@ -8093,7 +8075,7 @@
         <v xml:space="preserve">                        128: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>129</v>
       </c>
@@ -8120,7 +8102,7 @@
         <v xml:space="preserve">                        129: ("3", "NUMB"),</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>130</v>
       </c>
@@ -8147,7 +8129,7 @@
         <v xml:space="preserve">                        130: ("3.1", "NUMB"),</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>131.1</v>
       </c>
@@ -8173,7 +8155,7 @@
         <v xml:space="preserve">                        131.1: ("night", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>131.19999999999999</v>
       </c>
@@ -8197,7 +8179,7 @@
         <v xml:space="preserve">                        131.2: ("time", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>132</v>
       </c>
@@ -8227,7 +8209,7 @@
         <v xml:space="preserve">                        132: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>133</v>
       </c>
@@ -8255,7 +8237,7 @@
         <v xml:space="preserve">                        133: ("05:20", "NUMB"),</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>134.1</v>
       </c>
@@ -8281,7 +8263,7 @@
         <v xml:space="preserve">                        134.1: ("five", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>134.19999999999999</v>
       </c>
@@ -8305,7 +8287,7 @@
         <v xml:space="preserve">                        134.2: ("minute", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>135</v>
       </c>
@@ -8332,7 +8314,7 @@
         <v xml:space="preserve">                        135: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>136</v>
       </c>
@@ -8362,7 +8344,7 @@
         <v xml:space="preserve">                        136: ("UK", "ALPHA"),</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>137</v>
       </c>
@@ -8392,7 +8374,7 @@
         <v xml:space="preserve">                        137: ("28", "NUMB"),</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>138</v>
       </c>
@@ -8422,7 +8404,7 @@
         <v xml:space="preserve">                        138: ("2006", "NUMB"),</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>139.1</v>
       </c>
@@ -8451,7 +8433,7 @@
         <v xml:space="preserve">                        139.1: ("0.166666666666667", "SPLT-NUMB"),</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>139.19999999999999</v>
       </c>
@@ -8468,7 +8450,7 @@
       <c r="F155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>140</v>
       </c>
@@ -8498,7 +8480,7 @@
         <v xml:space="preserve">                        140: ("05:30", "NUMB"),</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>141</v>
       </c>
@@ -8525,7 +8507,7 @@
         <v xml:space="preserve">                        141: ("06:00", "NUMB"),</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>142</v>
       </c>
@@ -8552,7 +8534,7 @@
         <v xml:space="preserve">                        142: ("09:00", "NUMB"),</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>143</v>
       </c>
@@ -8579,7 +8561,7 @@
         <v xml:space="preserve">                        143: ("10:00", "NUMB"),</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>144</v>
       </c>
@@ -8609,7 +8591,7 @@
         <v xml:space="preserve">                        144: ("12:00", "NUMB"),</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>145</v>
       </c>
@@ -8636,7 +8618,7 @@
         <v xml:space="preserve">                        145: ("2:00", "NUMB"),</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>146</v>
       </c>
@@ -8666,7 +8648,7 @@
         <v xml:space="preserve">                        146: ("2.15", "NUMB"),</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>147</v>
       </c>
@@ -8696,7 +8678,7 @@
         <v xml:space="preserve">                        147: ("5:00", "NUMB"),</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>148</v>
       </c>
@@ -8726,7 +8708,7 @@
         <v xml:space="preserve">                        148: ("PM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>149</v>
       </c>
@@ -8753,7 +8735,7 @@
         <v xml:space="preserve">                        149: ("6:30", "NUMB"),</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>150.1</v>
       </c>
@@ -8779,7 +8761,7 @@
         <v xml:space="preserve">                        150.1: ("two", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>150.19999999999999</v>
       </c>
@@ -8803,7 +8785,7 @@
         <v xml:space="preserve">                        150.2: ("minute", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>151.1</v>
       </c>
@@ -8832,7 +8814,7 @@
         <v xml:space="preserve">                        151.1: ("30", "SPLT-NUMB"),</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>151.19999999999999</v>
       </c>
@@ -8853,7 +8835,7 @@
         <v xml:space="preserve">                      151.2: "minute",</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>152</v>
       </c>
@@ -8880,7 +8862,7 @@
         <v xml:space="preserve">                        152: ("18:00", "NUMB"),</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>153</v>
       </c>
@@ -8910,7 +8892,7 @@
         <v xml:space="preserve">                        153: ("12:00", "NUMB"),</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>154</v>
       </c>
@@ -8937,7 +8919,7 @@
         <v xml:space="preserve">                        154: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>155.1</v>
       </c>
@@ -8963,7 +8945,7 @@
         <v xml:space="preserve">                        155.1: ("four", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>155.19999999999999</v>
       </c>
@@ -8983,7 +8965,7 @@
         <v xml:space="preserve">                      155.2: "minute",</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>156</v>
       </c>
@@ -9013,7 +8995,7 @@
         <v xml:space="preserve">                        156: ("PM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>157</v>
       </c>
@@ -9043,7 +9025,7 @@
         <v xml:space="preserve">                        157: ("17:54", "NUMB"),</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>158</v>
       </c>
@@ -9070,7 +9052,7 @@
         <v xml:space="preserve">                        158: ("22:00", "NUMB"),</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>159</v>
       </c>
@@ -9100,7 +9082,7 @@
         <v xml:space="preserve">                        159: ("00:48", "NUMB"),</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>160</v>
       </c>
@@ -9130,7 +9112,7 @@
         <v xml:space="preserve">                        160: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>161</v>
       </c>
@@ -9157,7 +9139,7 @@
         <v xml:space="preserve">                        161: ("01:00", "NUMB"),</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>162</v>
       </c>
@@ -9187,7 +9169,7 @@
         <v xml:space="preserve">                        162: ("05:20", "NUMB"),</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>163</v>
       </c>
@@ -9217,7 +9199,7 @@
         <v xml:space="preserve">                        163: ("3.2", "NUMB"),</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>164</v>
       </c>
@@ -9244,7 +9226,7 @@
         <v xml:space="preserve">                        164: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>165.1</v>
       </c>
@@ -9270,7 +9252,7 @@
         <v xml:space="preserve">                        165.1: ("pre", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>165.2</v>
       </c>
@@ -9294,7 +9276,7 @@
         <v xml:space="preserve">                        165.2: ("recorded", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>166</v>
       </c>
@@ -9324,7 +9306,7 @@
         <v xml:space="preserve">                        166: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>167</v>
       </c>
@@ -9354,7 +9336,7 @@
         <v xml:space="preserve">                        167: ("O'Clock", "ALPHA"),</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>168</v>
       </c>
@@ -9384,7 +9366,7 @@
         <v xml:space="preserve">                        168: ("PM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>169</v>
       </c>
@@ -9414,7 +9396,7 @@
         <v xml:space="preserve">                        169: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>170</v>
       </c>
@@ -9444,7 +9426,7 @@
         <v xml:space="preserve">                        170: ("1998", "NUMB"),</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>171</v>
       </c>
@@ -9471,7 +9453,7 @@
         <v xml:space="preserve">                        171: ("TV", "ALPHA"),</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>172</v>
       </c>
@@ -9498,7 +9480,7 @@
         <v xml:space="preserve">                        172: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>173</v>
       </c>
@@ -9528,7 +9510,7 @@
         <v xml:space="preserve">                        173: ("2013", "NUMB"),</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>174</v>
       </c>
@@ -9555,7 +9537,7 @@
         <v xml:space="preserve">                        174: ("6", "NUMB"),</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>175</v>
       </c>
@@ -9585,7 +9567,7 @@
         <v xml:space="preserve">                        175: ("pm", "ALPHA"),</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>176</v>
       </c>
@@ -9612,7 +9594,7 @@
         <v xml:space="preserve">                        176: ("3.3", "NUMB"),</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>177</v>
       </c>
@@ -9639,7 +9621,7 @@
         <v xml:space="preserve">                        177: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>178.1</v>
       </c>
@@ -9665,7 +9647,7 @@
         <v xml:space="preserve">                        178.1: ("long", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>178.2</v>
       </c>
@@ -9689,7 +9671,7 @@
         <v xml:space="preserve">                        178.2: ("running", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="14" customHeight="1">
+    <row r="200" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>179</v>
       </c>
@@ -9716,7 +9698,7 @@
         <v xml:space="preserve">                        179: ("40", "NUMB"),</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>180</v>
       </c>
@@ -9746,7 +9728,7 @@
         <v xml:space="preserve">                        180: ("4's", "NUMB"),</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>181</v>
       </c>
@@ -9776,7 +9758,7 @@
         <v xml:space="preserve">                        181: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>182.1</v>
       </c>
@@ -9805,7 +9787,7 @@
         <v xml:space="preserve">                        182.1: ("i", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>182.2</v>
       </c>
@@ -9826,7 +9808,7 @@
         <v xml:space="preserve">                      182.2: "Player",</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>183</v>
       </c>
@@ -9853,7 +9835,7 @@
         <v xml:space="preserve">                        183: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>184</v>
       </c>
@@ -9883,7 +9865,7 @@
         <v xml:space="preserve">                        184: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>185</v>
       </c>
@@ -9910,7 +9892,7 @@
         <v xml:space="preserve">                        185: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>186</v>
       </c>
@@ -9937,7 +9919,7 @@
         <v xml:space="preserve">                        186: ("7", "NUMB"),</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>187</v>
       </c>
@@ -9967,7 +9949,7 @@
         <v xml:space="preserve">                        187: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>188</v>
       </c>
@@ -9994,7 +9976,7 @@
         <v xml:space="preserve">                        188: ("4.1", "NUMB"),</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>189</v>
       </c>
@@ -10021,7 +10003,7 @@
         <v xml:space="preserve">                        189: ("4.2", "NUMB"),</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>190.1</v>
       </c>
@@ -10050,7 +10032,7 @@
         <v xml:space="preserve">                        190.1: ("Newsreaders", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>190.2</v>
       </c>
@@ -10075,7 +10057,7 @@
         <v xml:space="preserve">                        190.2: ("Continuity", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>191</v>
       </c>
@@ -10102,7 +10084,7 @@
         <v xml:space="preserve">                        191: ("4.3", "NUMB"),</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>192.1</v>
       </c>
@@ -10128,7 +10110,7 @@
         <v xml:space="preserve">                        192.1: ("non", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>192.2</v>
       </c>
@@ -10152,7 +10134,7 @@
         <v xml:space="preserve">                        192.2: ("Today", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>193</v>
       </c>
@@ -10182,7 +10164,7 @@
         <v xml:space="preserve">                        193: ("4.4", "NUMB"),</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>194</v>
       </c>
@@ -10209,7 +10191,7 @@
         <v xml:space="preserve">                        194: ("4.5", "NUMB"),</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>195.1</v>
       </c>
@@ -10235,7 +10217,7 @@
         <v xml:space="preserve">                        195.1: ("non", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>195.2</v>
       </c>
@@ -10259,7 +10241,7 @@
         <v xml:space="preserve">                        195.2: ("Today", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>196</v>
       </c>
@@ -10289,7 +10271,7 @@
         <v xml:space="preserve">                        196: ("4.6", "NUMB"),</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>197</v>
       </c>
@@ -10316,7 +10298,7 @@
         <v xml:space="preserve">                        197: ("4.7", "NUMB"),</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>198</v>
       </c>
@@ -10343,7 +10325,7 @@
         <v xml:space="preserve">                        198: ("5", "NUMB"),</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>199</v>
       </c>
@@ -10370,7 +10352,7 @@
         <v xml:space="preserve">                        199: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>200</v>
       </c>
@@ -10397,7 +10379,7 @@
         <v xml:space="preserve">                        200: ("92–95", "NUMB"),</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>201</v>
       </c>
@@ -10427,7 +10409,7 @@
         <v xml:space="preserve">                        201: ("MHz", "ALPHA"),</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>202</v>
       </c>
@@ -10454,7 +10436,7 @@
         <v xml:space="preserve">                        202: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>203</v>
       </c>
@@ -10481,7 +10463,7 @@
         <v xml:space="preserve">                        203: ("95.8", "NUMB"),</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>204</v>
       </c>
@@ -10511,7 +10493,7 @@
         <v xml:space="preserve">                        204: ("MHz", "ALPHA"),</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>205</v>
       </c>
@@ -10538,7 +10520,7 @@
         <v xml:space="preserve">                        205: ("96", "NUMB"),</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>206</v>
       </c>
@@ -10568,7 +10550,7 @@
         <v xml:space="preserve">                        206: ("MHz", "ALPHA"),</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>207</v>
       </c>
@@ -10598,7 +10580,7 @@
         <v xml:space="preserve">                        207: ("103–104.5", "NUMB"),</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>208</v>
       </c>
@@ -10628,7 +10610,7 @@
         <v xml:space="preserve">                        208: ("198", "NUMB"),</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>209</v>
       </c>
@@ -10658,7 +10640,7 @@
         <v xml:space="preserve">                        209: ("kHz", "ALPHA"),</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>210</v>
       </c>
@@ -10688,7 +10670,7 @@
         <v xml:space="preserve">                        210: ("720", "NUMB"),</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>211</v>
       </c>
@@ -10718,7 +10700,7 @@
         <v xml:space="preserve">                        211: ("kHz", "ALPHA"),</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>212</v>
       </c>
@@ -10748,7 +10730,7 @@
         <v xml:space="preserve">                        212: ("1449", "NUMB"),</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>213</v>
       </c>
@@ -10778,7 +10760,7 @@
         <v xml:space="preserve">                        213: ("kHz", "ALPHA"),</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>214</v>
       </c>
@@ -10808,7 +10790,7 @@
         <v xml:space="preserve">                        214: ("DAB", "ALPHA"),</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>215</v>
       </c>
@@ -10835,7 +10817,7 @@
         <v xml:space="preserve">                        215: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>216</v>
       </c>
@@ -10862,7 +10844,7 @@
         <v xml:space="preserve">                        216: ("LW", "ALPHA"),</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>217</v>
       </c>
@@ -10892,7 +10874,7 @@
         <v xml:space="preserve">                        217: ("704", "NUMB"),</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>218</v>
       </c>
@@ -10919,7 +10901,7 @@
         <v xml:space="preserve">                        218: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>219</v>
       </c>
@@ -10949,7 +10931,7 @@
         <v xml:space="preserve">                        219: ("WMA", "ALPHA"),</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>220</v>
       </c>
@@ -10979,7 +10961,7 @@
         <v xml:space="preserve">                        220: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>221</v>
       </c>
@@ -11006,7 +10988,7 @@
         <v xml:space="preserve">                        221: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>222</v>
       </c>
@@ -11036,7 +11018,7 @@
         <v xml:space="preserve">                        222: ("704", "NUMB"),</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>223</v>
       </c>
@@ -11066,7 +11048,7 @@
         <v xml:space="preserve">                        223: ("104", "NUMB"),</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>224</v>
       </c>
@@ -11093,7 +11075,7 @@
         <v xml:space="preserve">                        224: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>225</v>
       </c>
@@ -11123,7 +11105,7 @@
         <v xml:space="preserve">                        225: ("LW", "ALPHA"),</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>226</v>
       </c>
@@ -11153,7 +11135,7 @@
         <v xml:space="preserve">                        226: ("710", "NUMB"),</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>227</v>
       </c>
@@ -11183,7 +11165,7 @@
         <v xml:space="preserve">                        227: ("143", "NUMB"),</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>228</v>
       </c>
@@ -11213,7 +11195,7 @@
         <v xml:space="preserve">                        228: ("904", "NUMB"),</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>229</v>
       </c>
@@ -11240,7 +11222,7 @@
         <v xml:space="preserve">                        229: ("FM", "ALPHA"),</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>230</v>
       </c>
@@ -11270,7 +11252,7 @@
         <v xml:space="preserve">                        230: ("911", "NUMB"),</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>231</v>
       </c>
@@ -11300,7 +11282,7 @@
         <v xml:space="preserve">                        231: ("LW", "ALPHA"),</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>232</v>
       </c>
@@ -11330,7 +11312,7 @@
         <v xml:space="preserve">                        232: ("UPC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>233</v>
       </c>
@@ -11360,7 +11342,7 @@
         <v xml:space="preserve">                        233: ("910", "NUMB"),</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>234.1</v>
       </c>
@@ -11389,7 +11371,7 @@
         <v xml:space="preserve">                        234.1: ("Talk", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>234.2</v>
       </c>
@@ -11414,7 +11396,7 @@
         <v xml:space="preserve">                        234.2: ("Talk", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>235</v>
       </c>
@@ -11441,7 +11423,7 @@
         <v xml:space="preserve">                        235: ("TV", "ALPHA"),</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>236</v>
       </c>
@@ -11471,7 +11453,7 @@
         <v xml:space="preserve">                        236: ("604", "NUMB"),</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>237</v>
       </c>
@@ -11498,7 +11480,7 @@
         <v xml:space="preserve">                        237: ("6", "NUMB"),</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>238</v>
       </c>
@@ -11525,7 +11507,7 @@
         <v xml:space="preserve">                        238: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>239</v>
       </c>
@@ -11555,7 +11537,7 @@
         <v xml:space="preserve">                        239: ("EU", "ALPHA"),</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>240</v>
       </c>
@@ -11585,7 +11567,7 @@
         <v xml:space="preserve">                        240: ("BBC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>241</v>
       </c>
@@ -11612,7 +11594,7 @@
         <v xml:space="preserve">                        241: ("500", "NUMB"),</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>242</v>
       </c>
@@ -11642,7 +11624,7 @@
         <v xml:space="preserve">                        242: ("500", "NUMB"),</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>243</v>
       </c>
@@ -11672,7 +11654,7 @@
         <v xml:space="preserve">                        243: ("2002", "NUMB"),</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>244</v>
       </c>
@@ -11702,7 +11684,7 @@
         <v xml:space="preserve">                        244: ("670", "NUMB"),</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>245</v>
       </c>
@@ -11732,7 +11714,7 @@
         <v xml:space="preserve">                        245: ("USD", "ALPHA"),</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>246</v>
       </c>
@@ -11762,7 +11744,7 @@
         <v xml:space="preserve">                        246: ("4300", "NUMB"),</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>247</v>
       </c>
@@ -11792,7 +11774,7 @@
         <v xml:space="preserve">                        247: ("CNY", "ALPHA"),</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>248</v>
       </c>
@@ -11819,7 +11801,7 @@
         <v xml:space="preserve">                        248: ("51300", "NUMB"),</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>249</v>
       </c>
@@ -11849,7 +11831,7 @@
         <v xml:space="preserve">                        249: ("JPY", "ALPHA"),</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>250</v>
       </c>
@@ -11876,7 +11858,7 @@
         <v xml:space="preserve">                        250: ("600", "NUMB"),</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>251</v>
       </c>
@@ -11906,7 +11888,7 @@
         <v xml:space="preserve">                        251: ("CHF", "ALPHA"),</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>252</v>
       </c>
@@ -11936,7 +11918,7 @@
         <v xml:space="preserve">                        252: ("430", "NUMB"),</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>253</v>
       </c>
@@ -11966,7 +11948,7 @@
         <v xml:space="preserve">                        253: ("GBP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>254</v>
       </c>
@@ -11993,7 +11975,7 @@
         <v xml:space="preserve">                        254: ("22", "NUMB"),</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>255</v>
       </c>
@@ -12020,7 +12002,7 @@
         <v xml:space="preserve">                        255: ("20", "NUMB"),</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>256</v>
       </c>
@@ -12050,7 +12032,7 @@
         <v xml:space="preserve">                        256: ("332", "NUMB"),</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>257.10000000000002</v>
       </c>
@@ -12070,7 +12052,7 @@
         <v xml:space="preserve">                      257.1: "160",</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>257.2</v>
       </c>
@@ -12087,7 +12069,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>257.3</v>
       </c>
@@ -12104,7 +12086,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>257.39999999999998</v>
       </c>
@@ -12133,7 +12115,7 @@
         <v xml:space="preserve">                        257.4: ("mm", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>258.10000000000002</v>
       </c>
@@ -12162,7 +12144,7 @@
         <v xml:space="preserve">                        258.1: ("arches", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>258.2</v>
       </c>
@@ -12179,7 +12161,7 @@
       <c r="F288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>259</v>
       </c>
@@ -12206,7 +12188,7 @@
         <v xml:space="preserve">                        259: ("20th", "NUMB"),</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>260</v>
       </c>
@@ -12236,7 +12218,7 @@
         <v xml:space="preserve">                        260: ("2011", "NUMB"),</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>261</v>
       </c>
@@ -12266,7 +12248,7 @@
         <v xml:space="preserve">                        261: ("594833600", "NUMB"),</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>262</v>
       </c>
@@ -12293,7 +12275,7 @@
         <v xml:space="preserve">                        262: ("1", "NUMB"),</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>263</v>
       </c>
@@ -12320,7 +12302,7 @@
         <v xml:space="preserve">                        263: ("NCBs", "ALPHA"),</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>264</v>
       </c>
@@ -12347,7 +12329,7 @@
         <v xml:space="preserve">                        264: ("7", "NUMB"),</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>265</v>
       </c>
@@ -12377,7 +12359,7 @@
         <v xml:space="preserve">                        265: ("ECB", "ALPHA"),</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>266</v>
       </c>
@@ -12404,7 +12386,7 @@
         <v xml:space="preserve">                        266: ("NCBs", "ALPHA"),</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>267</v>
       </c>
@@ -12434,7 +12416,7 @@
         <v xml:space="preserve">                        267: ("1", "NUMB"),</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>268</v>
       </c>
@@ -12464,7 +12446,7 @@
         <v xml:space="preserve">                        268: ("1999", "NUMB"),</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>269</v>
       </c>
@@ -12491,7 +12473,7 @@
         <v xml:space="preserve">                        269: ("300", "NUMB"),</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>270</v>
       </c>
@@ -12521,7 +12503,7 @@
         <v xml:space="preserve">                        270: ("1", "NUMB"),</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>271</v>
       </c>
@@ -12551,7 +12533,7 @@
         <v xml:space="preserve">                        271: ("2002", "NUMB"),</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>272</v>
       </c>
@@ -12578,7 +12560,7 @@
         <v xml:space="preserve">                        272: ("12", "NUMB"),</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>273</v>
       </c>
@@ -12608,7 +12590,7 @@
         <v xml:space="preserve">                        273: ("28", "NUMB"),</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>274</v>
       </c>
@@ -12638,7 +12620,7 @@
         <v xml:space="preserve">                        274: ("2002", "NUMB"),</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>275</v>
       </c>
@@ -12668,7 +12650,7 @@
         <v xml:space="preserve">                        275: ("31", "NUMB"),</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>276</v>
       </c>
@@ -12698,7 +12680,7 @@
         <v xml:space="preserve">                        276: ("2001", "NUMB"),</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>277</v>
       </c>
@@ -12728,7 +12710,7 @@
         <v xml:space="preserve">                        277: ("2011", "NUMB"),</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>278</v>
       </c>
@@ -12758,7 +12740,7 @@
         <v xml:space="preserve">                        278: ("1", "NUMB"),</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>279</v>
       </c>
@@ -12788,7 +12770,7 @@
         <v xml:space="preserve">                        279: ("2003", "NUMB"),</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>280.10000000000002</v>
       </c>
@@ -12814,7 +12796,7 @@
         <v xml:space="preserve">                        280.1: ("Jean", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>280.2</v>
       </c>
@@ -12838,7 +12820,7 @@
         <v xml:space="preserve">                        280.2: ("Claude", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>281</v>
       </c>
@@ -12868,7 +12850,7 @@
         <v xml:space="preserve">                        281: ("160", "NUMB"),</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>282</v>
       </c>
@@ -12895,7 +12877,7 @@
         <v xml:space="preserve">                        282: ("6.3", "NUMB"),</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>283</v>
       </c>
@@ -12925,7 +12907,7 @@
         <v xml:space="preserve">                        283: ("in", "ALPHA"),</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>284</v>
       </c>
@@ -12955,7 +12937,7 @@
         <v xml:space="preserve">                        284: ("82", "NUMB"),</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>285</v>
       </c>
@@ -12982,7 +12964,7 @@
         <v xml:space="preserve">                        285: ("3.2", "NUMB"),</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>286</v>
       </c>
@@ -13012,7 +12994,7 @@
         <v xml:space="preserve">                        286: ("in", "ALPHA"),</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>287.10000000000002</v>
       </c>
@@ -13041,7 +13023,7 @@
         <v xml:space="preserve">                        287.1: ("arches", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>287.2</v>
       </c>
@@ -13066,7 +13048,7 @@
         <v xml:space="preserve">                        287.2: ("doorways", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>288</v>
       </c>
@@ -13093,7 +13075,7 @@
         <v xml:space="preserve">                        288: ("20th", "NUMB"),</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>289</v>
       </c>
@@ -13123,7 +13105,7 @@
         <v xml:space="preserve">                        289: ("EU", "ALPHA"),</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>290</v>
       </c>
@@ -13153,7 +13135,7 @@
         <v xml:space="preserve">                        290: ("ECB", "ALPHA"),</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>291</v>
       </c>
@@ -13183,7 +13165,7 @@
         <v xml:space="preserve">                        291: ("EU", "ALPHA"),</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>292</v>
       </c>
@@ -13213,7 +13195,7 @@
         <v xml:space="preserve">                        292: ("EU", "ALPHA"),</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>293</v>
       </c>
@@ -13243,7 +13225,7 @@
         <v xml:space="preserve">                        293: ("EU", "ALPHA"),</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>294.10000000000002</v>
       </c>
@@ -13269,7 +13251,7 @@
         <v xml:space="preserve">                        294.1: ("highest", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>294.2</v>
       </c>
@@ -13293,7 +13275,7 @@
         <v xml:space="preserve">                        294.2: ("quality", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>295</v>
       </c>
@@ -13320,7 +13302,7 @@
         <v xml:space="preserve">                        295: ("EURion", "ALPHA"),</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>296</v>
       </c>
@@ -13350,7 +13332,7 @@
         <v xml:space="preserve">                        296: ("US$100", "NUMB"),</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>297.10000000000002</v>
       </c>
@@ -13376,7 +13358,7 @@
         <v xml:space="preserve">                        297.1: ("widely", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>297.2</v>
       </c>
@@ -13400,7 +13382,7 @@
         <v xml:space="preserve">                        297.2: ("used", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>298.10000000000002</v>
       </c>
@@ -13426,7 +13408,7 @@
         <v xml:space="preserve">                        298.1: ("high", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>298.10000000000002</v>
       </c>
@@ -13448,7 +13430,7 @@
         <v xml:space="preserve">                        298.1: ("value", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>299</v>
       </c>
@@ -13473,7 +13455,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>300</v>
       </c>
@@ -13500,7 +13482,7 @@
         <v xml:space="preserve">                        300: ("5000", "NUMB"),</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>301</v>
       </c>
@@ -13527,7 +13509,7 @@
         <v xml:space="preserve">                        301: ("1000", "NUMB"),</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>302</v>
       </c>
@@ -13554,7 +13536,7 @@
         <v xml:space="preserve">                        302: ("1000", "NUMB"),</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>303.10000000000002</v>
       </c>
@@ -13580,7 +13562,7 @@
         <v xml:space="preserve">                        303.1: ("high", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>303.2</v>
       </c>
@@ -13600,7 +13582,7 @@
         <v xml:space="preserve">                      303.2: "value",</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>304.10000000000002</v>
       </c>
@@ -13624,7 +13606,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>304.2</v>
       </c>
@@ -13640,7 +13622,7 @@
       <c r="F341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>305</v>
       </c>
@@ -13670,7 +13652,7 @@
         <v xml:space="preserve">                        305: ("20", "NUMB"),</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>306</v>
       </c>
@@ -13700,7 +13682,7 @@
         <v xml:space="preserve">                        306: ("2010", "NUMB"),</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>307</v>
       </c>
@@ -13727,7 +13709,7 @@
         <v xml:space="preserve">                        307: ("500", "NUMB"),</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>308</v>
       </c>
@@ -13754,7 +13736,7 @@
         <v xml:space="preserve">                        308: ("0.9", "NUMB"),</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>309</v>
       </c>
@@ -13781,7 +13763,7 @@
         <v xml:space="preserve">                        309: ("500", "NUMB"),</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>310</v>
       </c>
@@ -13811,7 +13793,7 @@
         <v xml:space="preserve">                        310: ("UK", "ALPHA"),</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>311</v>
       </c>
@@ -13838,7 +13820,7 @@
         <v xml:space="preserve">                        311: ("500", "NUMB"),</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>312</v>
       </c>
@@ -13868,7 +13850,7 @@
         <v xml:space="preserve">                        312: ("430", "NUMB"),</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>313.10000000000002</v>
       </c>
@@ -13894,7 +13876,7 @@
         <v xml:space="preserve">                        313.1: ("publicly", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>313.2</v>
       </c>
@@ -13914,7 +13896,7 @@
         <v xml:space="preserve">                        313.2: ("circulated", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>314</v>
       </c>
@@ -13944,7 +13926,7 @@
         <v xml:space="preserve">                        314: ("EU", "ALPHA"),</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>315.10000000000002</v>
       </c>
@@ -13973,7 +13955,7 @@
         <v xml:space="preserve">                        315.1: ("2005/06", "SPLT-NUMB"),</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>315.2</v>
       </c>
@@ -13996,7 +13978,7 @@
         <v xml:space="preserve">                        315.2: ("EC", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>316</v>
       </c>
@@ -14026,7 +14008,7 @@
         <v xml:space="preserve">                        316: ("15000", "NUMB"),</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>317</v>
       </c>
@@ -14056,7 +14038,7 @@
         <v xml:space="preserve">                        317: ("2011", "NUMB"),</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>318</v>
       </c>
@@ -14086,7 +14068,7 @@
         <v xml:space="preserve">                        318: ("594833600", "NUMB"),</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>319</v>
       </c>
@@ -14113,7 +14095,7 @@
         <v xml:space="preserve">                        319: ("500", "NUMB"),</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>320.10000000000002</v>
       </c>
@@ -14139,7 +14121,7 @@
         <v xml:space="preserve">                        320.1: ("second", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>320.2</v>
       </c>
@@ -14159,7 +14141,7 @@
         <v xml:space="preserve">                        320.2: ("least", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>321</v>
       </c>
@@ -14189,7 +14171,7 @@
         <v xml:space="preserve">                        321: ("297416801500", "NUMB"),</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>322</v>
       </c>
@@ -14216,7 +14198,7 @@
         <v xml:space="preserve">                        322: ("500", "NUMB"),</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>323.10000000000002</v>
       </c>
@@ -14242,7 +14224,7 @@
         <v xml:space="preserve">                        323.1: ("environment", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>323.2</v>
       </c>
@@ -14266,7 +14248,7 @@
         <v xml:space="preserve">                        323.2: ("friendly", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>324.10000000000002</v>
       </c>
@@ -14295,7 +14277,7 @@
         <v xml:space="preserve">                        324.1: ("Euro", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>324.2</v>
       </c>
@@ -14316,7 +14298,7 @@
         <v xml:space="preserve">                      324.2: "Bill",</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>324.3</v>
       </c>
@@ -14337,7 +14319,7 @@
         <v xml:space="preserve">                      324.3: "Tracker",</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>325.10000000000002</v>
       </c>
@@ -14366,7 +14348,7 @@
         <v xml:space="preserve">                        325.1: ("Euro", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>325.2</v>
       </c>
@@ -14387,7 +14369,7 @@
         <v xml:space="preserve">                      325.2: "Bill",</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>325.3</v>
       </c>
@@ -14408,7 +14390,7 @@
         <v xml:space="preserve">                      325.3: "Tracker",</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>326</v>
       </c>
@@ -14435,7 +14417,7 @@
         <v xml:space="preserve">                        326: ("96", "NUMB"),</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>327</v>
       </c>
@@ -14465,7 +14447,7 @@
         <v xml:space="preserve">                        327: ("2011", "NUMB"),</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>328</v>
       </c>
@@ -14495,7 +14477,7 @@
         <v xml:space="preserve">                        328: ("50°43′00", "NUMB"),</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>329</v>
       </c>
@@ -14525,7 +14507,7 @@
         <v xml:space="preserve">                        329: ("N", "ALPHA"),</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>330</v>
       </c>
@@ -14555,7 +14537,7 @@
         <v xml:space="preserve">                        330: ("02°26′00", "NUMB"),</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>331</v>
       </c>
@@ -14585,7 +14567,7 @@
         <v xml:space="preserve">                        331: ("W﻿", "ALPHA"),</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>332</v>
       </c>
@@ -14612,7 +14594,7 @@
         <v xml:space="preserve">                        332: ("50", "NUMB"),</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>333</v>
       </c>
@@ -14639,7 +14621,7 @@
         <v xml:space="preserve">                        333: ("80", "NUMB"),</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>334</v>
       </c>
@@ -14669,7 +14651,7 @@
         <v xml:space="preserve">                        334: ("km", "ALPHA"),</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>335</v>
       </c>
@@ -14699,7 +14681,7 @@
         <v xml:space="preserve">                        335: ("40", "NUMB"),</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>336</v>
       </c>
@@ -14726,7 +14708,7 @@
         <v xml:space="preserve">                        336: ("64", "NUMB"),</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>337</v>
       </c>
@@ -14756,7 +14738,7 @@
         <v xml:space="preserve">                        337: ("km", "ALPHA"),</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>338</v>
       </c>
@@ -14786,7 +14768,7 @@
         <v xml:space="preserve">                        338: ("1024", "NUMB"),</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>339</v>
       </c>
@@ -14816,7 +14798,7 @@
         <v xml:space="preserve">                        339: ("2653", "NUMB"),</v>
       </c>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>340</v>
       </c>
@@ -14846,7 +14828,7 @@
         <v xml:space="preserve">                        340: ("km²", "ALPHA"),</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>341.1</v>
       </c>
@@ -14872,7 +14854,7 @@
         <v xml:space="preserve">                        341.1: ("north", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>341.2</v>
       </c>
@@ -14896,7 +14878,7 @@
         <v xml:space="preserve">                        341.2: ("west", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>342.1</v>
       </c>
@@ -14922,7 +14904,7 @@
         <v xml:space="preserve">                        342.1: ("north", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>342.2</v>
       </c>
@@ -14946,7 +14928,7 @@
         <v xml:space="preserve">                        342.2: ("east", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>343</v>
       </c>
@@ -14976,7 +14958,7 @@
         <v xml:space="preserve">                        343: ("390980", "NUMB"),</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>344</v>
       </c>
@@ -15006,7 +14988,7 @@
         <v xml:space="preserve">                        344: ("163444", "NUMB"),</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>345</v>
       </c>
@@ -15036,7 +15018,7 @@
         <v xml:space="preserve">                        345: ("138288", "NUMB"),</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>346</v>
       </c>
@@ -15066,7 +15048,7 @@
         <v xml:space="preserve">                        346: ("692712", "NUMB"),</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>347</v>
       </c>
@@ -15096,7 +15078,7 @@
         <v xml:space="preserve">                        347: ("91.3%", "NUMB"),</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>348</v>
       </c>
@@ -15123,7 +15105,7 @@
         <v xml:space="preserve">                        348: ("95.2%", "NUMB"),</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>349</v>
       </c>
@@ -15150,7 +15132,7 @@
         <v xml:space="preserve">                        349: ("98.8%", "NUMB"),</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>350</v>
       </c>
@@ -15177,7 +15159,7 @@
         <v xml:space="preserve">                        350: ("0.78", "NUMB"),</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>351</v>
       </c>
@@ -15204,7 +15186,7 @@
         <v xml:space="preserve">                        351: ("13.7%", "NUMB"),</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>352</v>
       </c>
@@ -15231,7 +15213,7 @@
         <v xml:space="preserve">                        352: ("25.9%", "NUMB"),</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>353</v>
       </c>
@@ -15258,7 +15240,7 @@
         <v xml:space="preserve">                        353: ("65", "NUMB"),</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>354</v>
       </c>
@@ -15285,7 +15267,7 @@
         <v xml:space="preserve">                        354: ("13.9%", "NUMB"),</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>355</v>
       </c>
@@ -15312,7 +15294,7 @@
         <v xml:space="preserve">                        355: ("16–74", "NUMB"),</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>356</v>
       </c>
@@ -15339,7 +15321,7 @@
         <v xml:space="preserve">                        356: ("34", "NUMB"),</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>357</v>
       </c>
@@ -15366,7 +15348,7 @@
         <v xml:space="preserve">                        357: ("9.6", "NUMB"),</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>358</v>
       </c>
@@ -15393,7 +15375,7 @@
         <v xml:space="preserve">                        358: ("1000", "NUMB"),</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>359</v>
       </c>
@@ -15423,7 +15405,7 @@
         <v xml:space="preserve">                        359: ("1996", "NUMB"),</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>360</v>
       </c>
@@ -15453,7 +15435,7 @@
         <v xml:space="preserve">                        360: ("1056", "NUMB"),</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>361</v>
       </c>
@@ -15480,7 +15462,7 @@
         <v xml:space="preserve">                        361: ("2.7", "NUMB"),</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>362</v>
       </c>
@@ -15510,7 +15492,7 @@
         <v xml:space="preserve">                        362: ("1000", "NUMB"),</v>
       </c>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>363</v>
       </c>
@@ -15540,7 +15522,7 @@
         <v xml:space="preserve">                        363: ("1997", "NUMB"),</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>364</v>
       </c>
@@ -15567,7 +15549,7 @@
         <v xml:space="preserve">                        364: ("7200", "NUMB"),</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>365.1</v>
       </c>
@@ -15593,7 +15575,7 @@
         <v xml:space="preserve">                        365.1: ("population", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>365.2</v>
       </c>
@@ -15617,7 +15599,7 @@
         <v xml:space="preserve">                        365.2: ("growth", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>366</v>
       </c>
@@ -15644,7 +15626,7 @@
         <v xml:space="preserve">                        366: ("17.3%", "NUMB"),</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>367</v>
       </c>
@@ -15674,7 +15656,7 @@
         <v xml:space="preserve">                        367: ("2001", "NUMB"),</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>368</v>
       </c>
@@ -15704,7 +15686,7 @@
         <v xml:space="preserve">                        368: ("2005", "NUMB"),</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>369</v>
       </c>
@@ -15731,7 +15713,7 @@
         <v xml:space="preserve">                        369: ("23", "NUMB"),</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>370</v>
       </c>
@@ -15761,7 +15743,7 @@
         <v xml:space="preserve">                        370: ("2005", "NUMB"),</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>371</v>
       </c>
@@ -15788,7 +15770,7 @@
         <v xml:space="preserve">                        371: ("MP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>372.1</v>
       </c>
@@ -15814,7 +15796,7 @@
         <v xml:space="preserve">                        372.1: ("Mid", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>372.2</v>
       </c>
@@ -15838,7 +15820,7 @@
         <v xml:space="preserve">                        372.2: ("Dorset", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>373.1</v>
       </c>
@@ -15864,7 +15846,7 @@
         <v xml:space="preserve">                        373.1: ("south", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>373.2</v>
       </c>
@@ -15888,7 +15870,7 @@
         <v xml:space="preserve">                        373.2: ("west", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>374.1</v>
       </c>
@@ -15914,7 +15896,7 @@
         <v xml:space="preserve">                        374.1: ("north", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>374.2</v>
       </c>
@@ -15938,7 +15920,7 @@
         <v xml:space="preserve">                        374.2: ("east", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>375.1</v>
       </c>
@@ -15964,7 +15946,7 @@
         <v xml:space="preserve">                        375.1: ("South", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>375.2</v>
       </c>
@@ -15988,7 +15970,7 @@
         <v xml:space="preserve">                        375.2: ("east", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>376</v>
       </c>
@@ -16015,7 +15997,7 @@
         <v xml:space="preserve">                        376: ("BP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>377.1</v>
       </c>
@@ -16041,7 +16023,7 @@
         <v xml:space="preserve">                        377.1: ("high", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>377.2</v>
       </c>
@@ -16061,7 +16043,7 @@
         <v xml:space="preserve">                      377.2: "quality",</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>378</v>
       </c>
@@ -16091,7 +16073,7 @@
         <v xml:space="preserve">                        378: ("1960s", "NUMB"),</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>379</v>
       </c>
@@ -16118,7 +16100,7 @@
         <v xml:space="preserve">                        379: ("5", "NUMB"),</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>380</v>
       </c>
@@ -16148,7 +16130,7 @@
         <v xml:space="preserve">                        380: ("2001", "NUMB"),</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>381.1</v>
       </c>
@@ -16174,7 +16156,7 @@
         <v xml:space="preserve">                        381.1: ("south", "SPLT-ALPHA"),</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>381.2</v>
       </c>
@@ -16194,7 +16176,7 @@
         <v xml:space="preserve">                      381.2: "east",</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>382</v>
       </c>
@@ -16224,7 +16206,7 @@
         <v xml:space="preserve">                        382: ("909", "NUMB"),</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>383</v>
       </c>
@@ -16254,7 +16236,7 @@
         <v xml:space="preserve">                        383: ("ft", "ALPHA"),</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>384</v>
       </c>
@@ -16284,7 +16266,7 @@
         <v xml:space="preserve">                        384: ("277", "NUMB"),</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>385</v>
       </c>
@@ -16314,7 +16296,7 @@
         <v xml:space="preserve">                        385: ("m", "ALPHA"),</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>386</v>
       </c>
@@ -16344,7 +16326,7 @@
         <v xml:space="preserve">                        386: ("A.D.940", "SPLT"),</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>387</v>
       </c>
@@ -16371,7 +16353,7 @@
         <v xml:space="preserve">                        387: ("8000", "NUMB"),</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>388</v>
       </c>
@@ -16401,7 +16383,7 @@
         <v xml:space="preserve">                        388: ("BCE", "ALPHA"),</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>389</v>
       </c>
@@ -16431,7 +16413,7 @@
         <v xml:space="preserve">                        389: ("AD", "ALPHA"),</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>390</v>
       </c>
@@ -16458,7 +16440,7 @@
         <v xml:space="preserve">                        390: ("54", "NUMB"),</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>391</v>
       </c>
@@ -16485,7 +16467,7 @@
         <v xml:space="preserve">                        391: ("4th", "NUMB"),</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>392</v>
       </c>
@@ -16512,7 +16494,7 @@
         <v xml:space="preserve">                        392: ("200", "NUMB"),</v>
       </c>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>393</v>
       </c>
@@ -16539,7 +16521,7 @@
         <v xml:space="preserve">                        393: ("19th", "NUMB"),</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>394</v>
       </c>
@@ -16566,7 +16548,7 @@
         <v xml:space="preserve">                        394: ("12th", "NUMB"),</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>395</v>
       </c>
@@ -16593,7 +16575,7 @@
         <v xml:space="preserve">                        395: ("17th", "NUMB"),</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>396</v>
       </c>
@@ -16623,7 +16605,7 @@
         <v xml:space="preserve">                        396: ("2002", "NUMB"),</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>397</v>
       </c>
@@ -16653,7 +16635,7 @@
         <v xml:space="preserve">                        397: ("1903", "NUMB"),</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>398</v>
       </c>
@@ -16683,7 +16665,7 @@
         <v xml:space="preserve">                        398: ("km²", "ALPHA"),</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>399</v>
       </c>
@@ -16713,7 +16695,7 @@
         <v xml:space="preserve">                        399: ("1986", "NUMB"),</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>400</v>
       </c>
@@ -16740,7 +16722,7 @@
         <v xml:space="preserve">                        400: ("km²", "ALPHA"),</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>401</v>
       </c>
@@ -16770,7 +16752,7 @@
         <v xml:space="preserve">                        401: ("1989", "NUMB"),</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>402</v>
       </c>
@@ -16800,7 +16782,7 @@
         <v xml:space="preserve">                        402: ("240413", "NUMB"),</v>
       </c>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>403</v>
       </c>
@@ -16830,7 +16812,7 @@
         <v xml:space="preserve">                        403: ("178328", "NUMB"),</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>404</v>
       </c>
@@ -16860,7 +16842,7 @@
         <v xml:space="preserve">                        404: ("102589", "NUMB"),</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>405</v>
       </c>
@@ -16890,7 +16872,7 @@
         <v xml:space="preserve">                        405: ("73476", "NUMB"),</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>406</v>
       </c>
@@ -16917,7 +16899,7 @@
         <v xml:space="preserve">                        406: ("19th", "NUMB"),</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>407</v>
       </c>
@@ -16944,7 +16926,7 @@
         <v xml:space="preserve">                        407: ("4.2", "NUMB"),</v>
       </c>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>408</v>
       </c>
@@ -16974,7 +16956,7 @@
         <v xml:space="preserve">                        408: ("260000", "NUMB"),</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>409</v>
       </c>
@@ -17004,7 +16986,7 @@
         <v xml:space="preserve">                        409: ("2002", "NUMB"),</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>410</v>
       </c>
@@ -17034,7 +17016,7 @@
         <v xml:space="preserve">                        410: ("768", "NUMB"),</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>411</v>
       </c>
@@ -17064,7 +17046,7 @@
         <v xml:space="preserve">                        411: ("1999", "NUMB"),</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>412</v>
       </c>
@@ -17094,7 +17076,7 @@
         <v xml:space="preserve">                        412: ("310000", "NUMB"),</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>413</v>
       </c>
@@ -17124,7 +17106,7 @@
         <v xml:space="preserve">                        413: ("410000", "NUMB"),</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>414</v>
       </c>
@@ -17154,7 +17136,7 @@
         <v xml:space="preserve">                        414: ("1998", "NUMB"),</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>415</v>
       </c>
@@ -17184,7 +17166,7 @@
         <v xml:space="preserve">                        415: ("2002", "NUMB"),</v>
       </c>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>416</v>
       </c>
@@ -17214,7 +17196,7 @@
         <v xml:space="preserve">                        416: ("320000", "NUMB"),</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>417</v>
       </c>
@@ -17244,7 +17226,7 @@
         <v xml:space="preserve">                        417: ("14.6%", "NUMB"),</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>418</v>
       </c>
@@ -17274,7 +17256,7 @@
         <v xml:space="preserve">                        418: ("18.8%", "NUMB"),</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>419</v>
       </c>
@@ -17304,7 +17286,7 @@
         <v xml:space="preserve">                        419: ("UK", "ALPHA"),</v>
       </c>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>420</v>
       </c>
@@ -17331,7 +17313,7 @@
         <v xml:space="preserve">                        420: ("30th", "NUMB"),</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>421</v>
       </c>
@@ -17361,7 +17343,7 @@
         <v xml:space="preserve">                        421: ("34", "NUMB"),</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>422</v>
       </c>
@@ -17388,7 +17370,7 @@
         <v xml:space="preserve">                        422: ("84%", "NUMB"),</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>423</v>
       </c>
@@ -17415,7 +17397,7 @@
         <v xml:space="preserve">                        423: ("P.D.", "ALPHA"),</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>424</v>
       </c>
@@ -17442,7 +17424,7 @@
         <v xml:space="preserve">                        424: ("P.J.", "ALPHA"),</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>425</v>
       </c>
@@ -17469,7 +17451,7 @@
         <v xml:space="preserve">                        425: ("Singer-songwriter", "SPLT"),</v>
       </c>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>426</v>
       </c>
@@ -17496,7 +17478,7 @@
         <v xml:space="preserve">                        426: ("south-east", "SPLT"),</v>
       </c>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>427</v>
       </c>
@@ -17523,7 +17505,7 @@
         <v xml:space="preserve">                        427: ("mid-19th", "SPLT"),</v>
       </c>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>428</v>
       </c>
@@ -17550,7 +17532,7 @@
         <v xml:space="preserve">                        428: ("19th", "NUMB"),</v>
       </c>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>429</v>
       </c>
@@ -17580,7 +17562,7 @@
         <v xml:space="preserve">                        429: ("1974", "NUMB"),</v>
       </c>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>430</v>
       </c>
@@ -17610,7 +17592,7 @@
         <v xml:space="preserve">                        430: ("III", "ALPHA"),</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>431</v>
       </c>
@@ -17637,7 +17619,7 @@
         <v xml:space="preserve">                        431: ("car-orientated", "SPLT"),</v>
       </c>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>432</v>
       </c>
@@ -17664,7 +17646,7 @@
         <v xml:space="preserve">                        432: ("_z__k", "MISC"),</v>
       </c>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>433</v>
       </c>
@@ -17694,7 +17676,7 @@
         <v xml:space="preserve">                        433: ("Zn", "ALPHA"),</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>434</v>
       </c>
@@ -17724,7 +17706,7 @@
         <v xml:space="preserve">                        434: ("30", "NUMB"),</v>
       </c>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>435</v>
       </c>
@@ -17754,7 +17736,7 @@
         <v xml:space="preserve">                        435: ("12", "NUMB"),</v>
       </c>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>436</v>
       </c>
@@ -17784,7 +17766,7 @@
         <v xml:space="preserve">                        436: ("+2", "SPLT"),</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>437</v>
       </c>
@@ -17811,7 +17793,7 @@
         <v xml:space="preserve">                        437: ("24th", "NUMB"),</v>
       </c>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>438</v>
       </c>
@@ -17838,7 +17820,7 @@
         <v xml:space="preserve">                        438: ("10th", "NUMB"),</v>
       </c>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>439</v>
       </c>
@@ -17865,7 +17847,7 @@
         <v xml:space="preserve">                        439: ("BC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>440</v>
       </c>
@@ -17892,7 +17874,7 @@
         <v xml:space="preserve">                        440: ("13th", "NUMB"),</v>
       </c>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>441</v>
       </c>
@@ -17919,7 +17901,7 @@
         <v xml:space="preserve">                        441: ("16th", "NUMB"),</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>442</v>
       </c>
@@ -17949,7 +17931,7 @@
         <v xml:space="preserve">                        442: ("1746", "NUMB"),</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>443</v>
       </c>
@@ -17979,7 +17961,7 @@
         <v xml:space="preserve">                        443: ("1800", "NUMB"),</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>444</v>
       </c>
@@ -18006,7 +17988,7 @@
         <v xml:space="preserve">                        444: ("Corrosion-resistant", "SPLT"),</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>445</v>
       </c>
@@ -18033,7 +18015,7 @@
         <v xml:space="preserve">                        445: ("hot-dip", "SPLT"),</v>
       </c>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>446</v>
       </c>
@@ -18060,7 +18042,7 @@
         <v xml:space="preserve">                        446: ("anti-dandruff", "SPLT"),</v>
       </c>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>447</v>
       </c>
@@ -18090,7 +18072,7 @@
         <v xml:space="preserve">                        447: ("800000", "NUMB"),</v>
       </c>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>448</v>
       </c>
@@ -18117,7 +18099,7 @@
         <v xml:space="preserve">                        448: ("1", "NUMB"),</v>
       </c>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>449</v>
       </c>
@@ -18144,7 +18126,7 @@
         <v xml:space="preserve">                        449: ("1.1", "NUMB"),</v>
       </c>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>450</v>
       </c>
@@ -18171,7 +18153,7 @@
         <v xml:space="preserve">                        450: ("bluish-white", "SPLT"),</v>
       </c>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>451</v>
       </c>
@@ -18198,7 +18180,7 @@
         <v xml:space="preserve">                        451: ("100", "NUMB"),</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>452</v>
       </c>
@@ -18228,7 +18210,7 @@
         <v xml:space="preserve">                        452: ("150", "NUMB"),</v>
       </c>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>453</v>
       </c>
@@ -18258,7 +18240,7 @@
         <v xml:space="preserve">                        453: ("°C", "ALPHA"),</v>
       </c>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>454</v>
       </c>
@@ -18288,7 +18270,7 @@
         <v xml:space="preserve">                        454: ("210", "NUMB"),</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>455</v>
       </c>
@@ -18318,7 +18300,7 @@
         <v xml:space="preserve">                        455: ("°C", "ALPHA"),</v>
       </c>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>456</v>
       </c>
@@ -18348,7 +18330,7 @@
         <v xml:space="preserve">                        456: ("419.5", "NUMB"),</v>
       </c>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>457</v>
       </c>
@@ -18378,7 +18360,7 @@
         <v xml:space="preserve">                        457: ("°C", "ALPHA"),</v>
       </c>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>458</v>
       </c>
@@ -18408,7 +18390,7 @@
         <v xml:space="preserve">                        458: ("787.1", "NUMB"),</v>
       </c>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>459</v>
       </c>
@@ -18438,7 +18420,7 @@
         <v xml:space="preserve">                        459: ("F", "ALPHA"),</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>460</v>
       </c>
@@ -18468,7 +18450,7 @@
         <v xml:space="preserve">                        460: ("907", "NUMB"),</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>461</v>
       </c>
@@ -18498,7 +18480,7 @@
         <v xml:space="preserve">                        461: ("°C", "ALPHA"),</v>
       </c>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>462</v>
       </c>
@@ -18528,7 +18510,7 @@
         <v xml:space="preserve">                        462: ("ZrZn2", "SPLT"),</v>
       </c>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>463</v>
       </c>
@@ -18555,7 +18537,7 @@
         <v xml:space="preserve">                        463: ("35", "NUMB"),</v>
       </c>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>464</v>
       </c>
@@ -18585,7 +18567,7 @@
         <v xml:space="preserve">                        464: ("K.", "ALPHA"),</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>465</v>
       </c>
@@ -18612,7 +18594,7 @@
         <v xml:space="preserve">                        465: ("1.1", "NUMB"),</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>466</v>
       </c>
@@ -18639,7 +18621,7 @@
         <v xml:space="preserve">                        466: ("75", "NUMB"),</v>
       </c>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>467</v>
       </c>
@@ -18669,7 +18651,7 @@
         <v xml:space="preserve">                        467: ("ppm", "ALPHA"),</v>
       </c>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>468</v>
       </c>
@@ -18699,7 +18681,7 @@
         <v xml:space="preserve">                        468: ("0.0075%", "NUMB"),</v>
       </c>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>469</v>
       </c>
@@ -18726,7 +18708,7 @@
         <v xml:space="preserve">                        469: ("24th", "NUMB"),</v>
       </c>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>470</v>
       </c>
@@ -18756,7 +18738,7 @@
         <v xml:space="preserve">                        470: ("5–770", "NUMB"),</v>
       </c>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>471</v>
       </c>
@@ -18786,7 +18768,7 @@
         <v xml:space="preserve">                        471: ("ppm", "ALPHA"),</v>
       </c>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>472</v>
       </c>
@@ -18816,7 +18798,7 @@
         <v xml:space="preserve">                        472: ("64", "NUMB"),</v>
       </c>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>473</v>
       </c>
@@ -18846,7 +18828,7 @@
         <v xml:space="preserve">                        473: ("ppm.", "ALPHA"),</v>
       </c>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>474</v>
       </c>
@@ -18873,7 +18855,7 @@
         <v xml:space="preserve">                        474: ("30", "NUMB"),</v>
       </c>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>475</v>
       </c>
@@ -18903,7 +18885,7 @@
         <v xml:space="preserve">                        475: ("ppb", "ALPHA"),</v>
       </c>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>476</v>
       </c>
@@ -18933,7 +18915,7 @@
         <v xml:space="preserve">                        476: ("0.1–4", "NUMB"),</v>
       </c>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>477</v>
       </c>
@@ -18963,7 +18945,7 @@
         <v xml:space="preserve">                        477: ("µg/m3", "SPLT"),</v>
       </c>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>478</v>
       </c>
@@ -18990,7 +18972,7 @@
         <v xml:space="preserve">                        478: ("zinc-containing", "SPLT"),</v>
       </c>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>479</v>
       </c>
@@ -19017,7 +18999,7 @@
         <v xml:space="preserve">                        479: ("60–62%", "NUMB"),</v>
       </c>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>480</v>
       </c>
@@ -19044,7 +19026,7 @@
         <v xml:space="preserve">                        480: ("1.9", "NUMB"),</v>
       </c>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>481</v>
       </c>
@@ -19074,7 +19056,7 @@
         <v xml:space="preserve">                        481: ("2027", "NUMB"),</v>
       </c>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>482</v>
       </c>
@@ -19104,7 +19086,7 @@
         <v xml:space="preserve">                        482: ("2055", "NUMB"),</v>
       </c>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>483</v>
       </c>
@@ -19134,7 +19116,7 @@
         <v xml:space="preserve">                        483: ("346", "NUMB"),</v>
       </c>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>484</v>
       </c>
@@ -19164,7 +19146,7 @@
         <v xml:space="preserve">                        484: ("2002", "NUMB"),</v>
       </c>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>485</v>
       </c>
@@ -19194,7 +19176,7 @@
         <v xml:space="preserve">                        485: ("109", "NUMB"),</v>
       </c>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>486</v>
       </c>
@@ -19221,7 +19203,7 @@
         <v xml:space="preserve">                        486: ("1.3", "NUMB"),</v>
       </c>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>487</v>
       </c>
@@ -19251,7 +19233,7 @@
         <v xml:space="preserve">                        487: ("64Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>488</v>
       </c>
@@ -19278,7 +19260,7 @@
         <v xml:space="preserve">                        488: ("48.63%", "NUMB"),</v>
       </c>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>489</v>
       </c>
@@ -19305,7 +19287,7 @@
         <v xml:space="preserve">                        489: ("half-life", "SPLT"),</v>
       </c>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>490</v>
       </c>
@@ -19335,7 +19317,7 @@
         <v xml:space="preserve">                        490: ("4.3x10^18", "SPLT"),</v>
       </c>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>491</v>
       </c>
@@ -19365,7 +19347,7 @@
         <v xml:space="preserve">                        491: ("70Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>492</v>
       </c>
@@ -19392,7 +19374,7 @@
         <v xml:space="preserve">                        492: ("0.6%", "NUMB"),</v>
       </c>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>493</v>
       </c>
@@ -19422,7 +19404,7 @@
         <v xml:space="preserve">                        493: ("1.3x10^16", "SPLT"),</v>
       </c>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>494</v>
       </c>
@@ -19452,7 +19434,7 @@
         <v xml:space="preserve">                        494: ("66Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>495</v>
       </c>
@@ -19479,7 +19461,7 @@
         <v xml:space="preserve">                        495: ("0.28", "NUMB"),</v>
       </c>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>496</v>
       </c>
@@ -19509,7 +19491,7 @@
         <v xml:space="preserve">                        496: ("67Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>497</v>
       </c>
@@ -19536,7 +19518,7 @@
         <v xml:space="preserve">                        497: ("0.04", "NUMB"),</v>
       </c>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>498</v>
       </c>
@@ -19566,7 +19548,7 @@
         <v xml:space="preserve">                        498: ("68Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>499</v>
       </c>
@@ -19593,7 +19575,7 @@
         <v xml:space="preserve">                        499: ("0.19", "NUMB"),</v>
       </c>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>500</v>
       </c>
@@ -19623,7 +19605,7 @@
         <v xml:space="preserve">                        500: ("65Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>501</v>
       </c>
@@ -19653,7 +19635,7 @@
         <v xml:space="preserve">                        501: ("243.66", "NUMB"),</v>
       </c>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>502</v>
       </c>
@@ -19680,7 +19662,7 @@
         <v xml:space="preserve">                        502: ("long-lived", "SPLT"),</v>
       </c>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>503</v>
       </c>
@@ -19710,7 +19692,7 @@
         <v xml:space="preserve">                        503: ("72Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>504</v>
       </c>
@@ -19737,7 +19719,7 @@
         <v xml:space="preserve">                        504: ("half-life", "SPLT"),</v>
       </c>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>505</v>
       </c>
@@ -19764,7 +19746,7 @@
         <v xml:space="preserve">                        505: ("46.5", "NUMB"),</v>
       </c>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>506</v>
       </c>
@@ -19791,7 +19773,7 @@
         <v xml:space="preserve">                        506: ("10", "NUMB"),</v>
       </c>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>507</v>
       </c>
@@ -19821,7 +19803,7 @@
         <v xml:space="preserve">                        507: ("69mZn", "SPLT"),</v>
       </c>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>508</v>
       </c>
@@ -19848,7 +19830,7 @@
         <v xml:space="preserve">                        508: ("half-life", "SPLT"),</v>
       </c>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>509</v>
       </c>
@@ -19875,7 +19857,7 @@
         <v xml:space="preserve">                        509: ("13.76", "NUMB"),</v>
       </c>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>510</v>
       </c>
@@ -19905,7 +19887,7 @@
         <v xml:space="preserve">                        510: ("h.", "ALPHA"),</v>
       </c>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>511</v>
       </c>
@@ -19932,7 +19914,7 @@
         <v xml:space="preserve">                        511: ("m", "ALPHA"),</v>
       </c>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>512</v>
       </c>
@@ -19962,7 +19944,7 @@
         <v xml:space="preserve">                        512: ("61Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>513</v>
       </c>
@@ -19992,7 +19974,7 @@
         <v xml:space="preserve">                        513: ("73Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>514</v>
       </c>
@@ -20022,7 +20004,7 @@
         <v xml:space="preserve">                        514: ("65Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>515</v>
       </c>
@@ -20052,7 +20034,7 @@
         <v xml:space="preserve">                        515: ("71Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>516</v>
       </c>
@@ -20082,7 +20064,7 @@
         <v xml:space="preserve">                        516: ("77Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>517</v>
       </c>
@@ -20112,7 +20094,7 @@
         <v xml:space="preserve">                        517: ("78Zn", "SPLT"),</v>
       </c>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>518</v>
       </c>
@@ -20139,7 +20121,7 @@
         <v xml:space="preserve">                        518: ("66", "NUMB"),</v>
       </c>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>519</v>
       </c>
@@ -20166,7 +20148,7 @@
         <v xml:space="preserve">                        519: ("66", "NUMB"),</v>
       </c>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>520</v>
       </c>
@@ -20196,7 +20178,7 @@
         <v xml:space="preserve">                        520: ("2", "NUMB"),</v>
       </c>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>521</v>
       </c>
@@ -20223,7 +20205,7 @@
         <v xml:space="preserve">                        521: ("r-process", "SPLT"),</v>
       </c>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>522</v>
       </c>
@@ -20250,7 +20232,7 @@
         <v xml:space="preserve">                        522: ("3", "NUMB"),</v>
       </c>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>523</v>
       </c>
@@ -20277,7 +20259,7 @@
         <v xml:space="preserve">                        523: ("3.1", "NUMB"),</v>
       </c>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>524</v>
       </c>
@@ -20307,7 +20289,7 @@
         <v xml:space="preserve">                        524: ("Ar", "ALPHA"),</v>
       </c>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>525</v>
       </c>
@@ -20337,7 +20319,7 @@
         <v xml:space="preserve">                        525: ("3d104s2", "SPLT"),</v>
       </c>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>526</v>
       </c>
@@ -20364,7 +20346,7 @@
         <v xml:space="preserve">                        526: ("12", "NUMB"),</v>
       </c>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>527</v>
       </c>
@@ -20394,7 +20376,7 @@
         <v xml:space="preserve">                        527: ("Zn", "ALPHA"),</v>
       </c>
     </row>
-    <row r="582" spans="1:11">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>528</v>
       </c>
@@ -20421,7 +20403,7 @@
         <v xml:space="preserve">                        528: ("5", "NUMB"),</v>
       </c>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>529</v>
       </c>
@@ -20451,7 +20433,7 @@
         <v xml:space="preserve">                        529: ("OH", "ALPHA"),</v>
       </c>
     </row>
-    <row r="584" spans="1:11">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>530</v>
       </c>
@@ -20478,7 +20460,7 @@
         <v xml:space="preserve">                        530: ("6", "NUMB"),</v>
       </c>
     </row>
-    <row r="585" spans="1:11">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>531</v>
       </c>
@@ -20508,7 +20490,7 @@
         <v xml:space="preserve">                        531: ("CO", "ALPHA"),</v>
       </c>
     </row>
-    <row r="586" spans="1:11">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>532</v>
       </c>
@@ -20535,7 +20517,7 @@
         <v xml:space="preserve">                        532: ("3", "NUMB"),</v>
       </c>
     </row>
-    <row r="587" spans="1:11">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>533</v>
       </c>
@@ -20562,7 +20544,7 @@
         <v xml:space="preserve">                        533: ("2", "NUMB"),</v>
       </c>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>534</v>
       </c>
@@ -20589,7 +20571,7 @@
         <v xml:space="preserve">                        534: ("bluish-green", "SPLT"),</v>
       </c>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>535</v>
       </c>
@@ -20616,7 +20598,7 @@
         <v xml:space="preserve">                        535: ("non-metals", "SPLT"),</v>
       </c>
     </row>
-    <row r="590" spans="1:11">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>536</v>
       </c>
@@ -20643,7 +20625,7 @@
         <v xml:space="preserve">                        536: ("+2", "SPLT"),</v>
       </c>
     </row>
-    <row r="591" spans="1:11">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>537</v>
       </c>
@@ -20673,7 +20655,7 @@
         <v xml:space="preserve">                        537: ("Ar", "ALPHA"),</v>
       </c>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>538</v>
       </c>
@@ -20703,7 +20685,7 @@
         <v xml:space="preserve">                        538: ("3d10", "SPLT"),</v>
       </c>
     </row>
-    <row r="593" spans="1:11">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>539</v>
       </c>
@@ -20733,7 +20715,7 @@
         <v xml:space="preserve">                        539: ("sp3", "SPLT"),</v>
       </c>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>540</v>
       </c>
@@ -20760,7 +20742,7 @@
         <v xml:space="preserve">                        540: ("Zn", "ALPHA"),</v>
       </c>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>541</v>
       </c>
@@ -20787,7 +20769,7 @@
         <v xml:space="preserve">                        541: ("H2O", "SPLT"),</v>
       </c>
     </row>
-    <row r="596" spans="1:11">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>542</v>
       </c>
@@ -20814,7 +20796,7 @@
         <v xml:space="preserve">                        542: ("6", "NUMB"),</v>
       </c>
     </row>
-    <row r="597" spans="1:11">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>543</v>
       </c>
@@ -20841,7 +20823,7 @@
         <v xml:space="preserve">                        543: ("2+", "SPLT"),</v>
       </c>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>544</v>
       </c>
@@ -20871,7 +20853,7 @@
         <v xml:space="preserve">                        544: ("285", "NUMB"),</v>
       </c>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>545</v>
       </c>
@@ -20901,7 +20883,7 @@
         <v xml:space="preserve">                        545: ("°C", "ALPHA"),</v>
       </c>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>546</v>
       </c>
@@ -20931,7 +20913,7 @@
         <v xml:space="preserve">                        546: ("Zn2Cl2", "SPLT"),</v>
       </c>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>547</v>
       </c>
@@ -20958,7 +20940,7 @@
         <v xml:space="preserve">                        547: ("+1", "SPLT"),</v>
       </c>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>548</v>
       </c>
@@ -20985,7 +20967,7 @@
         <v xml:space="preserve">                        548: ("+1", "SPLT"),</v>
       </c>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>549</v>
       </c>
@@ -21012,7 +20994,7 @@
         <v xml:space="preserve">                        549: ("+2", "SPLT"),</v>
       </c>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>550</v>
       </c>
@@ -21039,7 +21021,7 @@
         <v xml:space="preserve">                        550: ("+4", "SPLT"),</v>
       </c>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>551</v>
       </c>
@@ -21066,7 +21048,7 @@
         <v xml:space="preserve">                        551: ("first-row", "SPLT"),</v>
       </c>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>552</v>
       </c>
@@ -21093,7 +21075,7 @@
         <v xml:space="preserve">                        552: ("d-shell", "SPLT"),</v>
       </c>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>553</v>
       </c>
@@ -21123,7 +21105,7 @@
         <v xml:space="preserve">                        553: ("N", "ALPHA"),</v>
       </c>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>554</v>
       </c>
@@ -21153,7 +21135,7 @@
         <v xml:space="preserve">                        554: ("S", "ALPHA"),</v>
       </c>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>555</v>
       </c>
@@ -21180,7 +21162,7 @@
         <v xml:space="preserve">                        555: ("4", "NUMB"),</v>
       </c>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>556</v>
       </c>
@@ -21205,7 +21187,7 @@
         <v xml:space="preserve">                        556: ("6", "NUMB"),</v>
       </c>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>557</v>
       </c>
@@ -21232,7 +21214,7 @@
         <v xml:space="preserve">                        557: ("5-coordinate", "SPLT"),</v>
       </c>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>558</v>
       </c>
@@ -21259,7 +21241,7 @@
         <v xml:space="preserve">                        558: ("3.2", "NUMB"),</v>
       </c>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>559</v>
       </c>
@@ -21286,7 +21268,7 @@
         <v xml:space="preserve">                        559: ("ZnO", "ALPHA"),</v>
       </c>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>560</v>
       </c>
@@ -21316,7 +21298,7 @@
         <v xml:space="preserve">                        560: ("ZnS", "ALPHA"),</v>
       </c>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>561</v>
       </c>
@@ -21346,7 +21328,7 @@
         <v xml:space="preserve">                        561: ("ZnSe", "SPLT"),</v>
       </c>
     </row>
-    <row r="616" spans="1:11">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>562</v>
       </c>
@@ -21376,7 +21358,7 @@
         <v xml:space="preserve">                        562: ("ZnTe", "SPLT"),</v>
       </c>
     </row>
-    <row r="617" spans="1:11">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>563</v>
       </c>
@@ -21403,7 +21385,7 @@
         <v xml:space="preserve">                        563: ("HTTP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="618" spans="1:11">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>564</v>
       </c>
@@ -21430,7 +21412,7 @@
         <v xml:space="preserve">                        564: ("HTTP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>565</v>
       </c>
@@ -21457,7 +21439,7 @@
         <v xml:space="preserve">                        565: ("third-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>566</v>
       </c>
@@ -21484,7 +21466,7 @@
         <v xml:space="preserve">                        566: ("long-term", "SPLT"),</v>
       </c>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>567</v>
       </c>
@@ -21511,7 +21493,7 @@
         <v xml:space="preserve">                        567: ("U.S.", "ALPHA"),</v>
       </c>
     </row>
-    <row r="622" spans="1:11">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>568</v>
       </c>
@@ -21541,7 +21523,7 @@
         <v xml:space="preserve">                        568: ("2011", "NUMB"),</v>
       </c>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>569</v>
       </c>
@@ -21568,7 +21550,7 @@
         <v xml:space="preserve">                        569: ("cross-site", "SPLT"),</v>
       </c>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>570</v>
       </c>
@@ -21595,7 +21577,7 @@
         <v xml:space="preserve">                        570: ("cross-site", "SPLT"),</v>
       </c>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>571</v>
       </c>
@@ -21625,7 +21607,7 @@
         <v xml:space="preserve">                        571: ("1994", "NUMB"),</v>
       </c>
     </row>
-    <row r="626" spans="1:11">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>572</v>
       </c>
@@ -21652,7 +21634,7 @@
         <v xml:space="preserve">                        572: ("e-commerce", "SPLT"),</v>
       </c>
     </row>
-    <row r="627" spans="1:11">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>573</v>
       </c>
@@ -21682,7 +21664,7 @@
         <v xml:space="preserve">                        573: ("MCI", "ALPHA"),</v>
       </c>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>574</v>
       </c>
@@ -21712,7 +21694,7 @@
         <v xml:space="preserve">                        574: ("MCI", "ALPHA"),</v>
       </c>
     </row>
-    <row r="629" spans="1:11">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>575</v>
       </c>
@@ -21742,7 +21724,7 @@
         <v xml:space="preserve">                        575: ("MCI", "ALPHA"),</v>
       </c>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>576</v>
       </c>
@@ -21772,7 +21754,7 @@
         <v xml:space="preserve">                        576: ("MCI's", "ALPHA"),</v>
       </c>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>577</v>
       </c>
@@ -21802,7 +21784,7 @@
         <v xml:space="preserve">                        577: ("0.9beta", "SPLT"),</v>
       </c>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>578</v>
       </c>
@@ -21832,7 +21814,7 @@
         <v xml:space="preserve">                        578: ("13", "NUMB"),</v>
       </c>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>579</v>
       </c>
@@ -21862,7 +21844,7 @@
         <v xml:space="preserve">                        579: ("1994", "NUMB"),</v>
       </c>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>580</v>
       </c>
@@ -21892,7 +21874,7 @@
         <v xml:space="preserve">                        580: ("1995", "NUMB"),</v>
       </c>
     </row>
-    <row r="635" spans="1:11">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>581</v>
       </c>
@@ -21922,7 +21904,7 @@
         <v xml:space="preserve">                        581: ("US", "ALPHA"),</v>
       </c>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>582</v>
       </c>
@@ -21952,7 +21934,7 @@
         <v xml:space="preserve">                        582: ("5774670", "NUMB"),</v>
       </c>
     </row>
-    <row r="637" spans="1:11">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>583</v>
       </c>
@@ -21982,7 +21964,7 @@
         <v xml:space="preserve">                        583: ("1998", "NUMB"),</v>
       </c>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>584</v>
       </c>
@@ -22009,7 +21991,7 @@
         <v xml:space="preserve">                        584: ("2", "NUMB"),</v>
       </c>
     </row>
-    <row r="639" spans="1:11">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>585</v>
       </c>
@@ -22039,7 +22021,7 @@
         <v xml:space="preserve">                        585: ("1995", "NUMB"),</v>
       </c>
     </row>
-    <row r="640" spans="1:11">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>586</v>
       </c>
@@ -22069,7 +22051,7 @@
         <v xml:space="preserve">                        586: ("12", "NUMB"),</v>
       </c>
     </row>
-    <row r="641" spans="1:11">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>587</v>
       </c>
@@ -22099,7 +22081,7 @@
         <v xml:space="preserve">                        587: ("1996", "NUMB"),</v>
       </c>
     </row>
-    <row r="642" spans="1:11">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>588</v>
       </c>
@@ -22126,7 +22108,7 @@
         <v xml:space="preserve">                        588: ("U.S.", "ALPHA"),</v>
       </c>
     </row>
-    <row r="643" spans="1:11">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>589</v>
       </c>
@@ -22156,7 +22138,7 @@
         <v xml:space="preserve">                        589: ("1996", "NUMB"),</v>
       </c>
     </row>
-    <row r="644" spans="1:11">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>590</v>
       </c>
@@ -22186,7 +22168,7 @@
         <v xml:space="preserve">                        590: ("1997", "NUMB"),</v>
       </c>
     </row>
-    <row r="645" spans="1:11">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>591</v>
       </c>
@@ -22216,7 +22198,7 @@
         <v xml:space="preserve">                        591: ("1995", "NUMB"),</v>
       </c>
     </row>
-    <row r="646" spans="1:11">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>592</v>
       </c>
@@ -22243,7 +22225,7 @@
         <v xml:space="preserve">                        592: ("www-talk", "SPLT"),</v>
       </c>
     </row>
-    <row r="647" spans="1:11">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>593</v>
       </c>
@@ -22273,7 +22255,7 @@
         <v xml:space="preserve">                        593: ("IETF", "ALPHA"),</v>
       </c>
     </row>
-    <row r="648" spans="1:11">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>594</v>
       </c>
@@ -22300,7 +22282,7 @@
         <v xml:space="preserve">                        594: ("HTTP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="649" spans="1:11">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>595</v>
       </c>
@@ -22330,7 +22312,7 @@
         <v xml:space="preserve">                        595: ("1996", "NUMB"),</v>
       </c>
     </row>
-    <row r="650" spans="1:11">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>596</v>
       </c>
@@ -22357,7 +22339,7 @@
         <v xml:space="preserve">                        596: ("third-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="651" spans="1:11">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>597</v>
       </c>
@@ -22384,7 +22366,7 @@
         <v xml:space="preserve">                        597: ("RFC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="652" spans="1:11">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>598</v>
       </c>
@@ -22414,7 +22396,7 @@
         <v xml:space="preserve">                        598: ("2109", "NUMB"),</v>
       </c>
     </row>
-    <row r="653" spans="1:11">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>599</v>
       </c>
@@ -22444,7 +22426,7 @@
         <v xml:space="preserve">                        599: ("1997", "NUMB"),</v>
       </c>
     </row>
-    <row r="654" spans="1:11">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>600</v>
       </c>
@@ -22471,7 +22453,7 @@
         <v xml:space="preserve">                        600: ("third-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="655" spans="1:11">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>601</v>
       </c>
@@ -22498,7 +22480,7 @@
         <v xml:space="preserve">                        601: ("third-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="656" spans="1:11">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>602</v>
       </c>
@@ -22525,7 +22507,7 @@
         <v xml:space="preserve">                        602: ("third-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="657" spans="1:11">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>603</v>
       </c>
@@ -22552,7 +22534,7 @@
         <v xml:space="preserve">                        603: ("RFC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="658" spans="1:11">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>604</v>
       </c>
@@ -22582,7 +22564,7 @@
         <v xml:space="preserve">                        604: ("2109", "NUMB"),</v>
       </c>
     </row>
-    <row r="659" spans="1:11">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>605</v>
       </c>
@@ -22609,7 +22591,7 @@
         <v xml:space="preserve">                        605: ("RFC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>606</v>
       </c>
@@ -22639,7 +22621,7 @@
         <v xml:space="preserve">                        606: ("2109", "NUMB"),</v>
       </c>
     </row>
-    <row r="661" spans="1:11">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>607</v>
       </c>
@@ -22666,7 +22648,7 @@
         <v xml:space="preserve">                        607: ("RFC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="662" spans="1:11">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>608</v>
       </c>
@@ -22696,7 +22678,7 @@
         <v xml:space="preserve">                        608: ("2965", "NUMB"),</v>
       </c>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>609</v>
       </c>
@@ -22723,7 +22705,7 @@
         <v xml:space="preserve">                        609: ("2000", "NUMB"),</v>
       </c>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>610</v>
       </c>
@@ -22750,7 +22732,7 @@
         <v xml:space="preserve">                        610: ("RFC", "ALPHA"),</v>
       </c>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>611</v>
       </c>
@@ -22780,7 +22762,7 @@
         <v xml:space="preserve">                        611: ("6265", "NUMB"),</v>
       </c>
     </row>
-    <row r="666" spans="1:11">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>612</v>
       </c>
@@ -22810,7 +22792,7 @@
         <v xml:space="preserve">                        612: ("2011", "NUMB"),</v>
       </c>
     </row>
-    <row r="667" spans="1:11">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>613</v>
       </c>
@@ -22837,7 +22819,7 @@
         <v xml:space="preserve">                        613: ("in-memory", "SPLT"),</v>
       </c>
     </row>
-    <row r="668" spans="1:11">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>614</v>
       </c>
@@ -22864,7 +22846,7 @@
         <v xml:space="preserve">                        614: ("HTTPS", "ALPHA"),</v>
       </c>
     </row>
-    <row r="669" spans="1:11">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>615</v>
       </c>
@@ -22894,7 +22876,7 @@
         <v xml:space="preserve">                        615: ("HttpOnly", "SPLT"),</v>
       </c>
     </row>
-    <row r="670" spans="1:11">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>616</v>
       </c>
@@ -22924,7 +22906,7 @@
         <v xml:space="preserve">                        616: ("HttpOnly", "SPLT"),</v>
       </c>
     </row>
-    <row r="671" spans="1:11">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>617</v>
       </c>
@@ -22954,7 +22936,7 @@
         <v xml:space="preserve">                        617: ("HttpOnly", "SPLT"),</v>
       </c>
     </row>
-    <row r="672" spans="1:11">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>618</v>
       </c>
@@ -22981,7 +22963,7 @@
         <v xml:space="preserve">                        618: ("HTTP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="673" spans="1:11">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>619</v>
       </c>
@@ -23008,7 +22990,7 @@
         <v xml:space="preserve">                        619: ("HTTPS", "ALPHA"),</v>
       </c>
     </row>
-    <row r="674" spans="1:11">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>620</v>
       </c>
@@ -23038,7 +23020,7 @@
         <v xml:space="preserve">                        620: ("non-HTTP", "SPLT"),</v>
       </c>
     </row>
-    <row r="675" spans="1:11">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>621</v>
       </c>
@@ -23068,7 +23050,7 @@
         <v xml:space="preserve">                        621: ("APIs", "ALPHA"),</v>
       </c>
     </row>
-    <row r="676" spans="1:11">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>622</v>
       </c>
@@ -23098,7 +23080,7 @@
         <v xml:space="preserve">                        622: ("JavaScript", "SPLT"),</v>
       </c>
     </row>
-    <row r="677" spans="1:11">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>623</v>
       </c>
@@ -23125,7 +23107,7 @@
         <v xml:space="preserve">                        623: ("cross-site", "SPLT"),</v>
       </c>
     </row>
-    <row r="678" spans="1:11">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>624</v>
       </c>
@@ -23152,7 +23134,7 @@
         <v xml:space="preserve">                        624: ("XSS", "ALPHA"),</v>
       </c>
     </row>
-    <row r="679" spans="1:11">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>625</v>
       </c>
@@ -23179,7 +23161,7 @@
         <v xml:space="preserve">                        625: ("Third-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="680" spans="1:11">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>626</v>
       </c>
@@ -23206,7 +23188,7 @@
         <v xml:space="preserve">                        626: ("First-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="681" spans="1:11">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>627</v>
       </c>
@@ -23233,7 +23215,7 @@
         <v xml:space="preserve">                        627: ("Third-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="682" spans="1:11">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>628</v>
       </c>
@@ -23260,7 +23242,7 @@
         <v xml:space="preserve">                        628: ("third-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="683" spans="1:11">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>629</v>
       </c>
@@ -23287,7 +23269,7 @@
         <v xml:space="preserve">                        629: ("www.example1.com", "MISC"),</v>
       </c>
     </row>
-    <row r="684" spans="1:11">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>630</v>
       </c>
@@ -23317,7 +23299,7 @@
         <v xml:space="preserve">                        630: ("ad.foxytracking.com", "MISC"),</v>
       </c>
     </row>
-    <row r="685" spans="1:11">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>631</v>
       </c>
@@ -23344,7 +23326,7 @@
         <v xml:space="preserve">                        631: ("ad.foxytracking.com", "MISC"),</v>
       </c>
     </row>
-    <row r="686" spans="1:11">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>632</v>
       </c>
@@ -23371,7 +23353,7 @@
         <v xml:space="preserve">                        632: ("www.example2.com", "MISC"),</v>
       </c>
     </row>
-    <row r="687" spans="1:11">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>633</v>
       </c>
@@ -23398,7 +23380,7 @@
         <v xml:space="preserve">                        633: ("ad.foxytracking.com", "MISC"),</v>
       </c>
     </row>
-    <row r="688" spans="1:11">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>634</v>
       </c>
@@ -23425,7 +23407,7 @@
         <v xml:space="preserve">                        634: ("ad.foxytracking.com", "MISC"),</v>
       </c>
     </row>
-    <row r="689" spans="1:11">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>635</v>
       </c>
@@ -23455,7 +23437,7 @@
         <v xml:space="preserve">                        635: ("ads", "ALPHA"),</v>
       </c>
     </row>
-    <row r="690" spans="1:11">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>636</v>
       </c>
@@ -23485,7 +23467,7 @@
         <v xml:space="preserve">                        636: ("2014", "NUMB"),</v>
       </c>
     </row>
-    <row r="691" spans="1:11">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>637</v>
       </c>
@@ -23512,7 +23494,7 @@
         <v xml:space="preserve">                        637: ("100", "NUMB"),</v>
       </c>
     </row>
-    <row r="692" spans="1:11">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>638</v>
       </c>
@@ -23539,7 +23521,7 @@
         <v xml:space="preserve">                        638: ("third-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="693" spans="1:11">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>639</v>
       </c>
@@ -23566,7 +23548,7 @@
         <v xml:space="preserve">                        639: ("10", "NUMB"),</v>
       </c>
     </row>
-    <row r="694" spans="1:11">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>640</v>
       </c>
@@ -23593,7 +23575,7 @@
         <v xml:space="preserve">                        640: ("third-party", "SPLT"),</v>
       </c>
     </row>
-    <row r="695" spans="1:11">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>641</v>
       </c>
@@ -23623,7 +23605,7 @@
         <v xml:space="preserve">                        641: ("800", "NUMB"),</v>
       </c>
     </row>
-    <row r="696" spans="1:11">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>642</v>
       </c>
@@ -23650,7 +23632,7 @@
         <v xml:space="preserve">                        642: ("Top-Level", "SPLT"),</v>
       </c>
     </row>
-    <row r="697" spans="1:11">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>643</v>
       </c>
@@ -23680,7 +23662,7 @@
         <v xml:space="preserve">                        643: (".com", "MISC"),</v>
       </c>
     </row>
-    <row r="698" spans="1:11">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>644</v>
       </c>
@@ -23710,7 +23692,7 @@
         <v xml:space="preserve">                        644: (".co.uk", "MISC"),</v>
       </c>
     </row>
-    <row r="699" spans="1:11">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>645</v>
       </c>
@@ -23737,7 +23719,7 @@
         <v xml:space="preserve">                        645: ("Top-Level", "SPLT"),</v>
       </c>
     </row>
-    <row r="700" spans="1:11">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>646</v>
       </c>
@@ -23767,7 +23749,7 @@
         <v xml:space="preserve">                        646: (".com", "MISC"),</v>
       </c>
     </row>
-    <row r="701" spans="1:11">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>647</v>
       </c>
@@ -23794,7 +23776,7 @@
         <v xml:space="preserve">                        647: ("example.com", "MISC"),</v>
       </c>
     </row>
-    <row r="702" spans="1:11">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>648</v>
       </c>
@@ -23821,7 +23803,7 @@
         <v xml:space="preserve">                        648: ("example.com", "MISC"),</v>
       </c>
     </row>
-    <row r="703" spans="1:11">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>649</v>
       </c>
@@ -23848,7 +23830,7 @@
         <v xml:space="preserve">                        649: ("cross-vendor", "SPLT"),</v>
       </c>
     </row>
-    <row r="704" spans="1:11">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>650</v>
       </c>
@@ -23875,7 +23857,7 @@
         <v xml:space="preserve">                        650: ("up-to-date", "SPLT"),</v>
       </c>
     </row>
-    <row r="705" spans="1:11">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>651</v>
       </c>
@@ -23902,7 +23884,7 @@
         <v xml:space="preserve">                        651: ("HTTP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="706" spans="1:11">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>652</v>
       </c>
@@ -23929,7 +23911,7 @@
         <v xml:space="preserve">                        652: ("MUID", "ALPHA"),</v>
       </c>
     </row>
-    <row r="707" spans="1:11">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>653</v>
       </c>
@@ -23959,7 +23941,7 @@
         <v xml:space="preserve">                        653: ("ETag", "SPLT"),</v>
       </c>
     </row>
-    <row r="708" spans="1:11">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>654</v>
       </c>
@@ -23989,7 +23971,7 @@
         <v xml:space="preserve">                        654: ("HTML5", "SPLT"),</v>
       </c>
     </row>
-    <row r="709" spans="1:11">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>655</v>
       </c>
@@ -24016,7 +23998,7 @@
         <v xml:space="preserve">                        655: ("client-side", "SPLT"),</v>
       </c>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>656</v>
       </c>
@@ -24043,7 +24025,7 @@
         <v xml:space="preserve">                        656: ("i.e.", "ALPHA"),</v>
       </c>
     </row>
-    <row r="711" spans="1:11">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>657</v>
       </c>
@@ -24070,7 +24052,7 @@
         <v xml:space="preserve">                        657: ("HTTP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>658</v>
       </c>
@@ -24097,7 +24079,7 @@
         <v xml:space="preserve">                        658: ("i.e.", "ALPHA"),</v>
       </c>
     </row>
-    <row r="713" spans="1:11">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>659</v>
       </c>
@@ -24127,7 +24109,7 @@
         <v xml:space="preserve">                        659: ("JavaScript", "SPLT"),</v>
       </c>
     </row>
-    <row r="714" spans="1:11">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>660</v>
       </c>
@@ -24157,7 +24139,7 @@
         <v xml:space="preserve">                        660: ("IP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="715" spans="1:11">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>661</v>
       </c>
@@ -24184,7 +24166,7 @@
         <v xml:space="preserve">                        661: ("HTTP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="716" spans="1:11">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>662</v>
       </c>
@@ -24214,7 +24196,7 @@
         <v xml:space="preserve">                        662: ("URL", "ALPHA"),</v>
       </c>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>663</v>
       </c>
@@ -24244,7 +24226,7 @@
         <v xml:space="preserve">                        663: ("date/time", "SPLT"),</v>
       </c>
     </row>
-    <row r="718" spans="1:11">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>664</v>
       </c>
@@ -24274,7 +24256,7 @@
         <v xml:space="preserve">                        664: ("HyperText", "SPLT"),</v>
       </c>
     </row>
-    <row r="719" spans="1:11">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>665</v>
       </c>
@@ -24301,7 +24283,7 @@
         <v xml:space="preserve">                        665: ("HTTP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="720" spans="1:11">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>666</v>
       </c>
@@ -24328,7 +24310,7 @@
         <v xml:space="preserve">                        666: ("HTTP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="721" spans="1:11">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>667</v>
       </c>
@@ -24358,7 +24340,7 @@
         <v xml:space="preserve">                        667: ("http://www.example.org/index.html", "MISC"),</v>
       </c>
     </row>
-    <row r="722" spans="1:11">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>668</v>
       </c>
@@ -24385,7 +24367,7 @@
         <v xml:space="preserve">                        668: ("www.example.org", "MISC"),</v>
       </c>
     </row>
-    <row r="723" spans="1:11">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>669</v>
       </c>
@@ -24412,7 +24394,7 @@
         <v xml:space="preserve">                        669: ("HTTP", "ALPHA"),</v>
       </c>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>670</v>
       </c>
@@ -24439,7 +24421,7 @@
         <v xml:space="preserve">                        670: ("Set-Cookie", "SPLT"),</v>
       </c>
     </row>
-    <row r="725" spans="1:11">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>671</v>
       </c>
@@ -24466,7 +24448,7 @@
         <v xml:space="preserve">                        671: ("Set-Cookie", "SPLT"),</v>
       </c>
     </row>
-    <row r="726" spans="1:11">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>672</v>
       </c>
@@ -24496,7 +24478,7 @@
         <v xml:space="preserve">                        672: ("http://www.example.org/spec.html", "MISC"),</v>
       </c>
     </row>
-    <row r="727" spans="1:11">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>673</v>
       </c>
@@ -24523,7 +24505,7 @@
         <v xml:space="preserve">                        673: ("www.example.org", "MISC"),</v>
       </c>
     </row>
-    <row r="728" spans="1:11">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>674</v>
       </c>
@@ -24550,7 +24532,7 @@
         <v xml:space="preserve">                        674: ("Set-Cookie", "SPLT"),</v>
       </c>
     </row>
-    <row r="729" spans="1:11">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>675</v>
       </c>
@@ -24577,7 +24559,7 @@
         <v xml:space="preserve">                        675: ("newvalue", "SPLT"),</v>
       </c>
     </row>
-    <row r="730" spans="1:11">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>676</v>
       </c>
@@ -24604,7 +24586,7 @@
         <v xml:space="preserve">                        676: ("ASCII", "ALPHA"),</v>
       </c>
     </row>
-    <row r="731" spans="1:11">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>677</v>
       </c>
@@ -24631,7 +24613,7 @@
         <v xml:space="preserve">                        677: ("u0021", "SPLT"),</v>
       </c>
     </row>
-    <row r="732" spans="1:11">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>678</v>
       </c>
@@ -24658,7 +24640,7 @@
         <v xml:space="preserve">                        678: ("u007E", "SPLT"),</v>
       </c>
     </row>
-    <row r="733" spans="1:11">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>679</v>
       </c>
@@ -24685,7 +24667,7 @@
         <v xml:space="preserve">                        679: ("RFC2965", "SPLT"),</v>
       </c>
     </row>
-    <row r="734" spans="1:11">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>680</v>
       </c>
@@ -24712,34 +24694,34 @@
         <v xml:space="preserve">                        680: ("name-value", "SPLT"),</v>
       </c>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D736">
         <f>COUNTIF(C:C,"ALPHA")</f>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="737" spans="4:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="737" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D737">
         <f>COUNTIF(C:C,"NUMB")</f>
         <v>349</v>
       </c>
     </row>
-    <row r="738" spans="4:4">
+    <row r="738" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D738">
         <f>COUNTIF(C:C,"SPLT")</f>
         <v>94</v>
       </c>
     </row>
-    <row r="739" spans="4:4">
+    <row r="739" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D739">
         <f>COUNTIF(C:C,"MISC")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="740" spans="4:4">
+    <row r="740" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D740">
         <f>SUM(D736:D739)</f>
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
